--- a/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -995,10 +995,10 @@
     <xf borderId="3" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,12 +1233,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="2" width="19.63"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
+    <col customWidth="1" min="2" max="2" width="20.13"/>
+    <col customWidth="1" min="3" max="3" width="25.88"/>
     <col customWidth="1" min="4" max="4" width="11.5"/>
     <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
-    <col customWidth="1" min="27" max="27" width="9.0"/>
+    <col customWidth="1" min="7" max="15" width="4.38"/>
+    <col customWidth="1" min="16" max="26" width="5.38"/>
+    <col customWidth="1" min="27" max="27" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1632,7 +1633,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1643,12 +1644,24 @@
       <c r="I7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
+      <c r="J7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1678,11 +1691,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1693,24 +1706,36 @@
       <c r="I8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
+      <c r="J8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="31">
@@ -1728,39 +1753,51 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
+      <c r="H9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="31">
@@ -1782,35 +1819,47 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="37" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
+      <c r="J10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="31">
@@ -1828,11 +1877,11 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1843,24 +1892,36 @@
       <c r="I11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
+      <c r="J11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="31">
@@ -1878,11 +1939,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -1893,24 +1954,36 @@
       <c r="I12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
+      <c r="J12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="31">
@@ -1932,7 +2005,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -1943,24 +2016,36 @@
       <c r="I13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
+      <c r="J13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="31">
@@ -1978,11 +2063,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>20</v>
@@ -1993,24 +2078,36 @@
       <c r="I14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
+      <c r="J14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="31">
@@ -2028,11 +2125,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2040,27 +2137,39 @@
       <c r="H15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
+      <c r="I15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="31">
@@ -2082,9 +2191,9 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="37" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="35" t="s">
@@ -2093,24 +2202,36 @@
       <c r="I16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
+      <c r="J16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="31">
@@ -2128,11 +2249,11 @@
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>20</v>
@@ -2143,24 +2264,36 @@
       <c r="I17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
+      <c r="J17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="31">
@@ -2178,11 +2311,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2193,24 +2326,36 @@
       <c r="I18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
+      <c r="J18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="31">
@@ -2228,11 +2373,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2243,24 +2388,36 @@
       <c r="I19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
+      <c r="J19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="31">
@@ -2278,39 +2435,51 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
+      <c r="H20" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="31">
@@ -2328,11 +2497,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2343,24 +2512,36 @@
       <c r="I21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
+      <c r="J21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="31">
@@ -2382,7 +2563,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2393,24 +2574,36 @@
       <c r="I22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
+      <c r="J22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="31">
@@ -2428,13 +2621,13 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G23" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="37" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="29" t="s">
@@ -2443,24 +2636,36 @@
       <c r="I23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
+      <c r="J23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="31">
@@ -2482,7 +2687,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2493,24 +2698,36 @@
       <c r="I24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
+      <c r="J24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="31">
@@ -2528,11 +2745,11 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2543,24 +2760,36 @@
       <c r="I25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
+      <c r="J25" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="31">
@@ -2582,9 +2811,9 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="37" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="36" t="s">
@@ -2593,24 +2822,36 @@
       <c r="I26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
+      <c r="J26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="31">
@@ -2632,7 +2873,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -2643,24 +2884,36 @@
       <c r="I27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
+      <c r="J27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="31">
@@ -2678,11 +2931,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>20</v>
@@ -2693,24 +2946,36 @@
       <c r="I28" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
+      <c r="J28" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="31">
@@ -2732,7 +2997,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>20</v>
@@ -2743,24 +3008,36 @@
       <c r="I29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
+      <c r="J29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="31">
@@ -2778,39 +3055,51 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="37" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
+      <c r="J30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="31">
@@ -2832,35 +3121,47 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="37" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
+      <c r="J31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="31">
@@ -2878,11 +3179,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -2890,27 +3191,39 @@
       <c r="H32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
+      <c r="I32" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="31">
@@ -2928,39 +3241,51 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="37" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
+      <c r="J33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="31">
@@ -2978,11 +3303,11 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -2993,24 +3318,36 @@
       <c r="I34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
+      <c r="J34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="31">
@@ -3028,39 +3365,51 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="37" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
+      <c r="I35" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="31">
@@ -3078,11 +3427,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3093,24 +3442,36 @@
       <c r="I36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
+      <c r="J36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="31">
@@ -3128,11 +3489,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3143,24 +3504,36 @@
       <c r="I37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
+      <c r="J37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="31">
@@ -3178,11 +3551,11 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>20</v>
@@ -3193,24 +3566,36 @@
       <c r="I38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
+      <c r="J38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="31">
@@ -3232,7 +3617,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -3243,24 +3628,36 @@
       <c r="I39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
+      <c r="J39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="31">
@@ -3278,11 +3675,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>20</v>
@@ -3293,24 +3690,36 @@
       <c r="I40" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
+      <c r="J40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="31">
@@ -3332,7 +3741,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -3343,24 +3752,36 @@
       <c r="I41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
+      <c r="J41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="31">
@@ -3378,11 +3799,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -3393,24 +3814,36 @@
       <c r="I42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
+      <c r="J42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="31">
@@ -3428,11 +3861,11 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3443,24 +3876,36 @@
       <c r="I43" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
+      <c r="J43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="31">
@@ -3482,7 +3927,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -3493,24 +3938,36 @@
       <c r="I44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
+      <c r="J44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="31">
@@ -3532,7 +3989,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>20</v>
@@ -3543,24 +4000,36 @@
       <c r="I45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
+      <c r="J45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="31">
@@ -3578,39 +4047,51 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="37" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
+      <c r="J46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="31">
@@ -3632,7 +4113,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -3643,24 +4124,36 @@
       <c r="I47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
+      <c r="J47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="31">
@@ -3682,35 +4175,47 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="38" t="s">
+      <c r="H48" s="37" t="s">
         <v>23</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
+      <c r="J48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="31">
@@ -3728,11 +4233,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -3740,27 +4245,39 @@
       <c r="H49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
-      <c r="AA49" s="37"/>
+      <c r="I49" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="31">
@@ -3778,39 +4295,51 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="37" t="s">
         <v>23</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
-      <c r="AA50" s="37"/>
+      <c r="J50" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="31">
@@ -3828,11 +4357,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -3843,24 +4372,36 @@
       <c r="I51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="37"/>
+      <c r="J51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="31">
@@ -3878,11 +4419,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -3893,24 +4434,36 @@
       <c r="I52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="37"/>
+      <c r="J52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="38"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="31">
@@ -3928,11 +4481,11 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -3943,24 +4496,36 @@
       <c r="I53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="37"/>
+      <c r="J53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="31">
@@ -3982,7 +4547,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -3993,24 +4558,36 @@
       <c r="I54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="37"/>
+      <c r="J54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="38"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="31">
@@ -4028,11 +4605,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -4040,27 +4617,39 @@
       <c r="H55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
+      <c r="I55" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="31">
@@ -4078,11 +4667,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -4093,24 +4682,36 @@
       <c r="I56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="37"/>
+      <c r="J56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O56" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="31">
@@ -4128,11 +4729,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -4143,24 +4744,36 @@
       <c r="I57" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
+      <c r="J57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O57" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="31">
@@ -4182,7 +4795,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4193,24 +4806,36 @@
       <c r="I58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
-      <c r="AA58" s="37"/>
+      <c r="J58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="38"/>
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="38"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="31">
@@ -4228,11 +4853,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -4243,24 +4868,36 @@
       <c r="I59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
-      <c r="AA59" s="37"/>
+      <c r="J59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="31">
@@ -4282,7 +4919,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -4293,24 +4930,36 @@
       <c r="I60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
+      <c r="J60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="31">
@@ -4328,39 +4977,51 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="38" t="s">
+      <c r="H61" s="37" t="s">
         <v>23</v>
       </c>
       <c r="I61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="37"/>
+      <c r="J61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="31">
@@ -4382,7 +5043,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -4393,24 +5054,36 @@
       <c r="I62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
+      <c r="J62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="31">
@@ -4428,11 +5101,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -4443,24 +5116,36 @@
       <c r="I63" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
-      <c r="AA63" s="37"/>
+      <c r="J63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="31">
@@ -4478,11 +5163,11 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -4493,24 +5178,36 @@
       <c r="I64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="37"/>
+      <c r="J64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="31">
@@ -4528,11 +5225,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -4543,24 +5240,36 @@
       <c r="I65" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
+      <c r="J65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="31">
@@ -4582,7 +5291,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -4593,24 +5302,36 @@
       <c r="I66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
-      <c r="AA66" s="37"/>
+      <c r="J66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="38"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="31">
@@ -4628,11 +5349,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -4643,24 +5364,36 @@
       <c r="I67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37"/>
-      <c r="AA67" s="37"/>
+      <c r="J67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="38"/>
+      <c r="AA67" s="38"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="31">
@@ -4682,7 +5415,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -4693,24 +5426,36 @@
       <c r="I68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
-      <c r="AA68" s="37"/>
+      <c r="J68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="38"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="31">
@@ -4732,7 +5477,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -4743,24 +5488,36 @@
       <c r="I69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="37"/>
+      <c r="J69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="38"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="31">
@@ -4782,7 +5539,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -4793,24 +5550,36 @@
       <c r="I70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
-      <c r="Z70" s="37"/>
-      <c r="AA70" s="37"/>
+      <c r="J70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="38"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="31">
@@ -4828,11 +5597,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -4843,24 +5612,36 @@
       <c r="I71" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
-      <c r="Z71" s="37"/>
-      <c r="AA71" s="37"/>
+      <c r="J71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="38"/>
+      <c r="Z71" s="38"/>
+      <c r="AA71" s="38"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="31">
@@ -4878,39 +5659,51 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="37"/>
-      <c r="AA72" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="31">
@@ -4928,11 +5721,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -4943,24 +5736,36 @@
       <c r="I73" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="37"/>
+      <c r="J73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="38"/>
+      <c r="Z73" s="38"/>
+      <c r="AA73" s="38"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="31">
@@ -4982,7 +5787,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -4993,24 +5798,36 @@
       <c r="I74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="37"/>
+      <c r="J74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="38"/>
+      <c r="Z74" s="38"/>
+      <c r="AA74" s="38"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="31">
@@ -5028,13 +5845,13 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G75" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="37" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="29" t="s">
@@ -5043,24 +5860,36 @@
       <c r="I75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="37"/>
-      <c r="Z75" s="37"/>
-      <c r="AA75" s="37"/>
+      <c r="J75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="31">
@@ -5078,39 +5907,51 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
-      <c r="Z76" s="37"/>
-      <c r="AA76" s="37"/>
+      <c r="H76" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
+      <c r="AA76" s="38"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="31">
@@ -5132,7 +5973,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G77" s="29" t="s">
         <v>20</v>
@@ -5143,24 +5984,36 @@
       <c r="I77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="37"/>
-      <c r="Z77" s="37"/>
-      <c r="AA77" s="37"/>
+      <c r="J77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="38"/>
+      <c r="Z77" s="38"/>
+      <c r="AA77" s="38"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="31">
@@ -5178,11 +6031,11 @@
       </c>
       <c r="E78" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>20</v>
@@ -5190,27 +6043,39 @@
       <c r="H78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="37"/>
-      <c r="Z78" s="37"/>
-      <c r="AA78" s="37"/>
+      <c r="I78" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38"/>
+      <c r="AA78" s="38"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="31" t="str">
@@ -5229,26 +6094,26 @@
         <v/>
       </c>
       <c r="G79" s="41"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="37"/>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
-      <c r="Y79" s="37"/>
-      <c r="Z79" s="37"/>
-      <c r="AA79" s="37"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="38"/>
+      <c r="Z79" s="38"/>
+      <c r="AA79" s="38"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="31" t="str">
@@ -5267,26 +6132,26 @@
         <v/>
       </c>
       <c r="G80" s="41"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="37"/>
-      <c r="Z80" s="37"/>
-      <c r="AA80" s="37"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="38"/>
+      <c r="Y80" s="38"/>
+      <c r="Z80" s="38"/>
+      <c r="AA80" s="38"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="31" t="str">
@@ -5305,26 +6170,26 @@
         <v/>
       </c>
       <c r="G81" s="41"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="37"/>
-      <c r="AA81" s="37"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="38"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="38"/>
+      <c r="Z81" s="38"/>
+      <c r="AA81" s="38"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="31" t="str">
@@ -5343,26 +6208,26 @@
         <v/>
       </c>
       <c r="G82" s="41"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="37"/>
-      <c r="Z82" s="37"/>
-      <c r="AA82" s="37"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38"/>
+      <c r="Y82" s="38"/>
+      <c r="Z82" s="38"/>
+      <c r="AA82" s="38"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="31" t="str">
@@ -5381,26 +6246,26 @@
         <v/>
       </c>
       <c r="G83" s="41"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="37"/>
-      <c r="Z83" s="37"/>
-      <c r="AA83" s="37"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="38"/>
+      <c r="AA83" s="38"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="31" t="str">
@@ -5419,26 +6284,26 @@
         <v/>
       </c>
       <c r="G84" s="41"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
-      <c r="Z84" s="37"/>
-      <c r="AA84" s="37"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+      <c r="Y84" s="38"/>
+      <c r="Z84" s="38"/>
+      <c r="AA84" s="38"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="31" t="str">
@@ -5457,26 +6322,26 @@
         <v/>
       </c>
       <c r="G85" s="41"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
-      <c r="Z85" s="37"/>
-      <c r="AA85" s="37"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38"/>
+      <c r="Y85" s="38"/>
+      <c r="Z85" s="38"/>
+      <c r="AA85" s="38"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="31" t="str">
@@ -5495,26 +6360,26 @@
         <v/>
       </c>
       <c r="G86" s="41"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="37"/>
-      <c r="Z86" s="37"/>
-      <c r="AA86" s="37"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38"/>
+      <c r="Y86" s="38"/>
+      <c r="Z86" s="38"/>
+      <c r="AA86" s="38"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="31" t="str">
@@ -5533,26 +6398,26 @@
         <v/>
       </c>
       <c r="G87" s="41"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="37"/>
-      <c r="Z87" s="37"/>
-      <c r="AA87" s="37"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38"/>
+      <c r="Y87" s="38"/>
+      <c r="Z87" s="38"/>
+      <c r="AA87" s="38"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="31" t="str">
@@ -5571,26 +6436,26 @@
         <v/>
       </c>
       <c r="G88" s="41"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="37"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
+      <c r="AA88" s="38"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="31" t="str">
@@ -5609,26 +6474,26 @@
         <v/>
       </c>
       <c r="G89" s="41"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="37"/>
-      <c r="Z89" s="37"/>
-      <c r="AA89" s="37"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="38"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="38"/>
+      <c r="X89" s="38"/>
+      <c r="Y89" s="38"/>
+      <c r="Z89" s="38"/>
+      <c r="AA89" s="38"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="31" t="str">
@@ -5647,26 +6512,26 @@
         <v/>
       </c>
       <c r="G90" s="41"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="37"/>
-      <c r="Z90" s="37"/>
-      <c r="AA90" s="37"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38"/>
+      <c r="Y90" s="38"/>
+      <c r="Z90" s="38"/>
+      <c r="AA90" s="38"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="31" t="str">
@@ -5685,26 +6550,26 @@
         <v/>
       </c>
       <c r="G91" s="41"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="37"/>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="37"/>
-      <c r="AA91" s="37"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="38"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="38"/>
+      <c r="Y91" s="38"/>
+      <c r="Z91" s="38"/>
+      <c r="AA91" s="38"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="31" t="str">
@@ -5723,26 +6588,26 @@
         <v/>
       </c>
       <c r="G92" s="41"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="37"/>
-      <c r="V92" s="37"/>
-      <c r="W92" s="37"/>
-      <c r="X92" s="37"/>
-      <c r="Y92" s="37"/>
-      <c r="Z92" s="37"/>
-      <c r="AA92" s="37"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="38"/>
+      <c r="Y92" s="38"/>
+      <c r="Z92" s="38"/>
+      <c r="AA92" s="38"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="31" t="str">
@@ -5761,26 +6626,26 @@
         <v/>
       </c>
       <c r="G93" s="41"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="37"/>
-      <c r="X93" s="37"/>
-      <c r="Y93" s="37"/>
-      <c r="Z93" s="37"/>
-      <c r="AA93" s="37"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="38"/>
+      <c r="AA93" s="38"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="31" t="str">
@@ -5799,26 +6664,26 @@
         <v/>
       </c>
       <c r="G94" s="41"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="37"/>
-      <c r="V94" s="37"/>
-      <c r="W94" s="37"/>
-      <c r="X94" s="37"/>
-      <c r="Y94" s="37"/>
-      <c r="Z94" s="37"/>
-      <c r="AA94" s="37"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="38"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="38"/>
+      <c r="X94" s="38"/>
+      <c r="Y94" s="38"/>
+      <c r="Z94" s="38"/>
+      <c r="AA94" s="38"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="31" t="str">
@@ -5837,26 +6702,26 @@
         <v/>
       </c>
       <c r="G95" s="41"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="37"/>
-      <c r="T95" s="37"/>
-      <c r="U95" s="37"/>
-      <c r="V95" s="37"/>
-      <c r="W95" s="37"/>
-      <c r="X95" s="37"/>
-      <c r="Y95" s="37"/>
-      <c r="Z95" s="37"/>
-      <c r="AA95" s="37"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="38"/>
+      <c r="Z95" s="38"/>
+      <c r="AA95" s="38"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="G96" s="43"/>

--- a/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -897,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -999,6 +999,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1633,7 +1636,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1662,8 +1665,12 @@
       <c r="O7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
@@ -1691,11 +1698,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1724,8 +1731,12 @@
       <c r="O8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="P8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -1757,7 +1768,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
@@ -1786,8 +1797,12 @@
       <c r="O9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
+      <c r="P9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -1819,7 +1834,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1848,8 +1863,12 @@
       <c r="O10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -1881,7 +1900,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1910,8 +1929,12 @@
       <c r="O11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -1943,7 +1966,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -1972,8 +1995,12 @@
       <c r="O12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -2001,7 +2028,7 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
@@ -2034,8 +2061,12 @@
       <c r="O13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -2063,11 +2094,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>20</v>
@@ -2096,8 +2127,12 @@
       <c r="O14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
+      <c r="P14" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -2129,7 +2164,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2158,8 +2193,12 @@
       <c r="O15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -2191,7 +2230,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>23</v>
@@ -2220,8 +2259,12 @@
       <c r="O16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -2253,7 +2296,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>20</v>
@@ -2282,8 +2325,12 @@
       <c r="O17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
@@ -2315,7 +2362,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2344,8 +2391,12 @@
       <c r="O18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
       <c r="T18" s="38"/>
@@ -2373,11 +2424,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2406,8 +2457,12 @@
       <c r="O19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
@@ -2439,7 +2494,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2468,8 +2523,12 @@
       <c r="O20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
@@ -2497,11 +2556,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2530,8 +2589,12 @@
       <c r="O21" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
@@ -2559,11 +2622,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2592,8 +2655,12 @@
       <c r="O22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
+      <c r="P22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
@@ -2625,7 +2692,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>23</v>
@@ -2654,8 +2721,12 @@
       <c r="O23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
@@ -2687,7 +2758,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2716,8 +2787,12 @@
       <c r="O24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
@@ -2749,7 +2824,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2778,8 +2853,12 @@
       <c r="O25" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="38"/>
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
@@ -2811,7 +2890,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>23</v>
@@ -2840,8 +2919,12 @@
       <c r="O26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
@@ -2869,11 +2952,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -2902,8 +2985,12 @@
       <c r="O27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
@@ -2931,7 +3018,7 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
@@ -2964,8 +3051,12 @@
       <c r="O28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
+      <c r="P28" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
@@ -2993,7 +3084,7 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
@@ -3026,8 +3117,12 @@
       <c r="O29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
+      <c r="P29" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
@@ -3059,7 +3154,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
@@ -3088,8 +3183,12 @@
       <c r="O30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
@@ -3121,7 +3220,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3150,8 +3249,12 @@
       <c r="O31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
@@ -3183,7 +3286,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3212,8 +3315,12 @@
       <c r="O32" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
@@ -3245,7 +3352,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>20</v>
@@ -3274,8 +3381,12 @@
       <c r="O33" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
@@ -3303,7 +3414,7 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -3336,8 +3447,12 @@
       <c r="O34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
+      <c r="P34" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
@@ -3369,7 +3484,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>23</v>
@@ -3398,8 +3513,12 @@
       <c r="O35" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
+      <c r="P35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
       <c r="T35" s="38"/>
@@ -3427,11 +3546,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3460,8 +3579,12 @@
       <c r="O36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
+      <c r="P36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
       <c r="T36" s="38"/>
@@ -3493,7 +3616,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3522,8 +3645,12 @@
       <c r="O37" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
+      <c r="P37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
@@ -3551,7 +3678,7 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
@@ -3584,8 +3711,12 @@
       <c r="O38" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
+      <c r="P38" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
       <c r="T38" s="38"/>
@@ -3617,7 +3748,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -3646,8 +3777,12 @@
       <c r="O39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
@@ -3675,11 +3810,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>20</v>
@@ -3708,8 +3843,12 @@
       <c r="O40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
       <c r="T40" s="38"/>
@@ -3737,11 +3876,11 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -3770,8 +3909,12 @@
       <c r="O41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
       <c r="T41" s="38"/>
@@ -3803,7 +3946,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -3832,8 +3975,12 @@
       <c r="O42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
+      <c r="P42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
       <c r="T42" s="38"/>
@@ -3865,7 +4012,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3894,8 +4041,12 @@
       <c r="O43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
+      <c r="P43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
       <c r="T43" s="38"/>
@@ -3927,7 +4078,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -3956,8 +4107,12 @@
       <c r="O44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
       <c r="T44" s="38"/>
@@ -3989,7 +4144,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>20</v>
@@ -4018,8 +4173,12 @@
       <c r="O45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R45" s="38"/>
       <c r="S45" s="38"/>
       <c r="T45" s="38"/>
@@ -4051,7 +4210,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4080,8 +4239,12 @@
       <c r="O46" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
+      <c r="P46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="R46" s="38"/>
       <c r="S46" s="38"/>
       <c r="T46" s="38"/>
@@ -4109,11 +4272,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4142,8 +4305,12 @@
       <c r="O47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
+      <c r="P47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R47" s="38"/>
       <c r="S47" s="38"/>
       <c r="T47" s="38"/>
@@ -4175,7 +4342,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4204,8 +4371,12 @@
       <c r="O48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R48" s="38"/>
       <c r="S48" s="38"/>
       <c r="T48" s="38"/>
@@ -4237,7 +4408,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4266,8 +4437,12 @@
       <c r="O49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R49" s="38"/>
       <c r="S49" s="38"/>
       <c r="T49" s="38"/>
@@ -4295,11 +4470,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>23</v>
@@ -4328,8 +4503,12 @@
       <c r="O50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
+      <c r="P50" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R50" s="38"/>
       <c r="S50" s="38"/>
       <c r="T50" s="38"/>
@@ -4361,7 +4540,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -4390,8 +4569,12 @@
       <c r="O51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
+      <c r="P51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R51" s="38"/>
       <c r="S51" s="38"/>
       <c r="T51" s="38"/>
@@ -4419,11 +4602,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -4452,8 +4635,12 @@
       <c r="O52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
+      <c r="P52" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R52" s="38"/>
       <c r="S52" s="38"/>
       <c r="T52" s="38"/>
@@ -4485,7 +4672,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -4514,8 +4701,12 @@
       <c r="O53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R53" s="38"/>
       <c r="S53" s="38"/>
       <c r="T53" s="38"/>
@@ -4547,7 +4738,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -4576,8 +4767,12 @@
       <c r="O54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
+      <c r="P54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
       <c r="T54" s="38"/>
@@ -4609,7 +4804,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -4638,8 +4833,12 @@
       <c r="O55" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
+      <c r="P55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R55" s="38"/>
       <c r="S55" s="38"/>
       <c r="T55" s="38"/>
@@ -4671,7 +4870,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -4700,8 +4899,12 @@
       <c r="O56" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R56" s="38"/>
       <c r="S56" s="38"/>
       <c r="T56" s="38"/>
@@ -4733,7 +4936,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -4762,8 +4965,12 @@
       <c r="O57" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
+      <c r="P57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R57" s="38"/>
       <c r="S57" s="38"/>
       <c r="T57" s="38"/>
@@ -4791,11 +4998,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4824,8 +5031,12 @@
       <c r="O58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
+      <c r="P58" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R58" s="38"/>
       <c r="S58" s="38"/>
       <c r="T58" s="38"/>
@@ -4857,7 +5068,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -4886,8 +5097,12 @@
       <c r="O59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
       <c r="T59" s="38"/>
@@ -4919,7 +5134,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -4948,8 +5163,12 @@
       <c r="O60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
+      <c r="P60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R60" s="38"/>
       <c r="S60" s="38"/>
       <c r="T60" s="38"/>
@@ -4981,7 +5200,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -5010,8 +5229,12 @@
       <c r="O61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
+      <c r="P61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="38"/>
       <c r="S61" s="38"/>
       <c r="T61" s="38"/>
@@ -5043,7 +5266,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5072,8 +5295,12 @@
       <c r="O62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="38"/>
       <c r="S62" s="38"/>
       <c r="T62" s="38"/>
@@ -5101,11 +5328,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -5134,8 +5361,12 @@
       <c r="O63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
+      <c r="P63" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="38"/>
       <c r="S63" s="38"/>
       <c r="T63" s="38"/>
@@ -5167,7 +5398,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -5196,8 +5427,12 @@
       <c r="O64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R64" s="38"/>
       <c r="S64" s="38"/>
       <c r="T64" s="38"/>
@@ -5225,11 +5460,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -5258,8 +5493,12 @@
       <c r="O65" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
+      <c r="P65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R65" s="38"/>
       <c r="S65" s="38"/>
       <c r="T65" s="38"/>
@@ -5291,7 +5530,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -5320,8 +5559,12 @@
       <c r="O66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
+      <c r="P66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="38"/>
       <c r="S66" s="38"/>
       <c r="T66" s="38"/>
@@ -5353,7 +5596,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -5382,8 +5625,12 @@
       <c r="O67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
+      <c r="P67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R67" s="38"/>
       <c r="S67" s="38"/>
       <c r="T67" s="38"/>
@@ -5411,7 +5658,7 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
@@ -5444,8 +5691,12 @@
       <c r="O68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
+      <c r="P68" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R68" s="38"/>
       <c r="S68" s="38"/>
       <c r="T68" s="38"/>
@@ -5477,7 +5728,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -5506,8 +5757,12 @@
       <c r="O69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="38"/>
       <c r="S69" s="38"/>
       <c r="T69" s="38"/>
@@ -5539,7 +5794,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -5568,8 +5823,12 @@
       <c r="O70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
       <c r="T70" s="38"/>
@@ -5601,7 +5860,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -5630,8 +5889,12 @@
       <c r="O71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
+      <c r="P71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
       <c r="T71" s="38"/>
@@ -5663,7 +5926,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>23</v>
@@ -5692,8 +5955,12 @@
       <c r="O72" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R72" s="38"/>
       <c r="S72" s="38"/>
       <c r="T72" s="38"/>
@@ -5721,11 +5988,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -5754,8 +6021,12 @@
       <c r="O73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
       <c r="T73" s="38"/>
@@ -5787,7 +6058,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -5816,8 +6087,12 @@
       <c r="O74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
       <c r="T74" s="38"/>
@@ -5845,11 +6120,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>23</v>
@@ -5878,8 +6153,12 @@
       <c r="O75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="R75" s="38"/>
       <c r="S75" s="38"/>
       <c r="T75" s="38"/>
@@ -5911,7 +6190,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>20</v>
@@ -5940,8 +6219,12 @@
       <c r="O76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
+      <c r="P76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R76" s="38"/>
       <c r="S76" s="38"/>
       <c r="T76" s="38"/>
@@ -5973,7 +6256,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G77" s="29" t="s">
         <v>20</v>
@@ -6002,8 +6285,12 @@
       <c r="O77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R77" s="38"/>
       <c r="S77" s="38"/>
       <c r="T77" s="38"/>
@@ -6029,13 +6316,13 @@
       <c r="D78" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="39">
+      <c r="E78" s="40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>20</v>
@@ -6064,8 +6351,12 @@
       <c r="O78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>
       <c r="T78" s="38"/>
@@ -6084,8 +6375,8 @@
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="33"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="39" t="str">
+      <c r="D79" s="41"/>
+      <c r="E79" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6093,7 +6384,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G79" s="41"/>
+      <c r="G79" s="42"/>
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
       <c r="J79" s="38"/>
@@ -6122,8 +6413,8 @@
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="33"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="39" t="str">
+      <c r="D80" s="41"/>
+      <c r="E80" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6131,7 +6422,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80" s="41"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="38"/>
       <c r="I80" s="38"/>
       <c r="J80" s="38"/>
@@ -6160,8 +6451,8 @@
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="33"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="39" t="str">
+      <c r="D81" s="41"/>
+      <c r="E81" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6169,7 +6460,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="41"/>
+      <c r="G81" s="42"/>
       <c r="H81" s="38"/>
       <c r="I81" s="38"/>
       <c r="J81" s="38"/>
@@ -6198,8 +6489,8 @@
       </c>
       <c r="B82" s="32"/>
       <c r="C82" s="33"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="39" t="str">
+      <c r="D82" s="41"/>
+      <c r="E82" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6207,7 +6498,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="41"/>
+      <c r="G82" s="42"/>
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
       <c r="J82" s="38"/>
@@ -6236,8 +6527,8 @@
       </c>
       <c r="B83" s="32"/>
       <c r="C83" s="33"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="39" t="str">
+      <c r="D83" s="41"/>
+      <c r="E83" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6245,7 +6536,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="41"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
       <c r="J83" s="38"/>
@@ -6274,8 +6565,8 @@
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="33"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="39" t="str">
+      <c r="D84" s="41"/>
+      <c r="E84" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6283,7 +6574,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="41"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="38"/>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
@@ -6312,8 +6603,8 @@
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="33"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="39" t="str">
+      <c r="D85" s="41"/>
+      <c r="E85" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6321,7 +6612,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="41"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
       <c r="J85" s="38"/>
@@ -6350,8 +6641,8 @@
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="33"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="39" t="str">
+      <c r="D86" s="41"/>
+      <c r="E86" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6359,7 +6650,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="41"/>
+      <c r="G86" s="42"/>
       <c r="H86" s="38"/>
       <c r="I86" s="38"/>
       <c r="J86" s="38"/>
@@ -6386,10 +6677,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39" t="str">
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6397,7 +6688,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="41"/>
+      <c r="G87" s="42"/>
       <c r="H87" s="38"/>
       <c r="I87" s="38"/>
       <c r="J87" s="38"/>
@@ -6424,10 +6715,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39" t="str">
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6435,7 +6726,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="41"/>
+      <c r="G88" s="42"/>
       <c r="H88" s="38"/>
       <c r="I88" s="38"/>
       <c r="J88" s="38"/>
@@ -6462,10 +6753,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39" t="str">
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6473,7 +6764,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="41"/>
+      <c r="G89" s="42"/>
       <c r="H89" s="38"/>
       <c r="I89" s="38"/>
       <c r="J89" s="38"/>
@@ -6500,10 +6791,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39" t="str">
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6511,7 +6802,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="41"/>
+      <c r="G90" s="42"/>
       <c r="H90" s="38"/>
       <c r="I90" s="38"/>
       <c r="J90" s="38"/>
@@ -6538,10 +6829,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39" t="str">
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6549,7 +6840,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="41"/>
+      <c r="G91" s="42"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
       <c r="J91" s="38"/>
@@ -6576,10 +6867,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39" t="str">
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6587,7 +6878,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="41"/>
+      <c r="G92" s="42"/>
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
       <c r="J92" s="38"/>
@@ -6614,10 +6905,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39" t="str">
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6625,7 +6916,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="41"/>
+      <c r="G93" s="42"/>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
       <c r="J93" s="38"/>
@@ -6652,10 +6943,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39" t="str">
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6663,7 +6954,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="41"/>
+      <c r="G94" s="42"/>
       <c r="H94" s="38"/>
       <c r="I94" s="38"/>
       <c r="J94" s="38"/>
@@ -6690,10 +6981,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39" t="str">
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6701,7 +6992,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="41"/>
+      <c r="G95" s="42"/>
       <c r="H95" s="38"/>
       <c r="I95" s="38"/>
       <c r="J95" s="38"/>
@@ -6724,2719 +7015,2719 @@
       <c r="AA95" s="38"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="G96" s="43"/>
+      <c r="G96" s="44"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="G97" s="43"/>
+      <c r="G97" s="44"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="G98" s="43"/>
+      <c r="G98" s="44"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="G99" s="43"/>
+      <c r="G99" s="44"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="G100" s="43"/>
+      <c r="G100" s="44"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="G101" s="43"/>
+      <c r="G101" s="44"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="G102" s="43"/>
+      <c r="G102" s="44"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="G103" s="43"/>
+      <c r="G103" s="44"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="G104" s="43"/>
+      <c r="G104" s="44"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="G105" s="43"/>
+      <c r="G105" s="44"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="G106" s="43"/>
+      <c r="G106" s="44"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="G107" s="43"/>
+      <c r="G107" s="44"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="G108" s="43"/>
+      <c r="G108" s="44"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="G109" s="43"/>
+      <c r="G109" s="44"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="G110" s="43"/>
+      <c r="G110" s="44"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="G111" s="43"/>
+      <c r="G111" s="44"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="G112" s="43"/>
+      <c r="G112" s="44"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="G113" s="43"/>
+      <c r="G113" s="44"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="G114" s="43"/>
+      <c r="G114" s="44"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="G115" s="43"/>
+      <c r="G115" s="44"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="G116" s="43"/>
+      <c r="G116" s="44"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="G117" s="43"/>
+      <c r="G117" s="44"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="G118" s="43"/>
+      <c r="G118" s="44"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="G119" s="43"/>
+      <c r="G119" s="44"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="G120" s="43"/>
+      <c r="G120" s="44"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="G121" s="43"/>
+      <c r="G121" s="44"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="G122" s="43"/>
+      <c r="G122" s="44"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="G123" s="43"/>
+      <c r="G123" s="44"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="G124" s="43"/>
+      <c r="G124" s="44"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="G125" s="43"/>
+      <c r="G125" s="44"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="G126" s="43"/>
+      <c r="G126" s="44"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="G127" s="43"/>
+      <c r="G127" s="44"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="G128" s="43"/>
+      <c r="G128" s="44"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="G129" s="43"/>
+      <c r="G129" s="44"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="G130" s="43"/>
+      <c r="G130" s="44"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="G131" s="43"/>
+      <c r="G131" s="44"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="G132" s="43"/>
+      <c r="G132" s="44"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="G133" s="43"/>
+      <c r="G133" s="44"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="G134" s="43"/>
+      <c r="G134" s="44"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="G135" s="43"/>
+      <c r="G135" s="44"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="G136" s="43"/>
+      <c r="G136" s="44"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="G137" s="43"/>
+      <c r="G137" s="44"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="G138" s="43"/>
+      <c r="G138" s="44"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="G139" s="43"/>
+      <c r="G139" s="44"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="G140" s="43"/>
+      <c r="G140" s="44"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="G141" s="43"/>
+      <c r="G141" s="44"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="G142" s="43"/>
+      <c r="G142" s="44"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="G143" s="43"/>
+      <c r="G143" s="44"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="G144" s="43"/>
+      <c r="G144" s="44"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="G145" s="43"/>
+      <c r="G145" s="44"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="G146" s="43"/>
+      <c r="G146" s="44"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="G147" s="43"/>
+      <c r="G147" s="44"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="G148" s="43"/>
+      <c r="G148" s="44"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="G149" s="43"/>
+      <c r="G149" s="44"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="G150" s="43"/>
+      <c r="G150" s="44"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="G151" s="43"/>
+      <c r="G151" s="44"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="G152" s="43"/>
+      <c r="G152" s="44"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="G153" s="43"/>
+      <c r="G153" s="44"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="G154" s="43"/>
+      <c r="G154" s="44"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="G155" s="43"/>
+      <c r="G155" s="44"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="G156" s="43"/>
+      <c r="G156" s="44"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="G157" s="43"/>
+      <c r="G157" s="44"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="G158" s="43"/>
+      <c r="G158" s="44"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="G159" s="43"/>
+      <c r="G159" s="44"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="G160" s="43"/>
+      <c r="G160" s="44"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="G161" s="43"/>
+      <c r="G161" s="44"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="G162" s="43"/>
+      <c r="G162" s="44"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="G163" s="43"/>
+      <c r="G163" s="44"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="G164" s="43"/>
+      <c r="G164" s="44"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="G165" s="43"/>
+      <c r="G165" s="44"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="G166" s="43"/>
+      <c r="G166" s="44"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="G167" s="43"/>
+      <c r="G167" s="44"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="G168" s="43"/>
+      <c r="G168" s="44"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="G169" s="43"/>
+      <c r="G169" s="44"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="G170" s="43"/>
+      <c r="G170" s="44"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="G171" s="43"/>
+      <c r="G171" s="44"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="G172" s="43"/>
+      <c r="G172" s="44"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="G173" s="43"/>
+      <c r="G173" s="44"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="G174" s="43"/>
+      <c r="G174" s="44"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="G175" s="43"/>
+      <c r="G175" s="44"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="G176" s="43"/>
+      <c r="G176" s="44"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="G177" s="43"/>
+      <c r="G177" s="44"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="G178" s="43"/>
+      <c r="G178" s="44"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="G179" s="43"/>
+      <c r="G179" s="44"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="G180" s="43"/>
+      <c r="G180" s="44"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="G181" s="43"/>
+      <c r="G181" s="44"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="G182" s="43"/>
+      <c r="G182" s="44"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="G183" s="43"/>
+      <c r="G183" s="44"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="G184" s="43"/>
+      <c r="G184" s="44"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="G185" s="43"/>
+      <c r="G185" s="44"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="G186" s="43"/>
+      <c r="G186" s="44"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="G187" s="43"/>
+      <c r="G187" s="44"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="G188" s="43"/>
+      <c r="G188" s="44"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="G189" s="43"/>
+      <c r="G189" s="44"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="G190" s="43"/>
+      <c r="G190" s="44"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="G191" s="43"/>
+      <c r="G191" s="44"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="G192" s="43"/>
+      <c r="G192" s="44"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="G193" s="43"/>
+      <c r="G193" s="44"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="G194" s="43"/>
+      <c r="G194" s="44"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="G195" s="43"/>
+      <c r="G195" s="44"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="G196" s="43"/>
+      <c r="G196" s="44"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="G197" s="43"/>
+      <c r="G197" s="44"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="G198" s="43"/>
+      <c r="G198" s="44"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="G199" s="43"/>
+      <c r="G199" s="44"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="G200" s="43"/>
+      <c r="G200" s="44"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="G201" s="43"/>
+      <c r="G201" s="44"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="G202" s="43"/>
+      <c r="G202" s="44"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="G203" s="43"/>
+      <c r="G203" s="44"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="G204" s="43"/>
+      <c r="G204" s="44"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="G205" s="43"/>
+      <c r="G205" s="44"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="G206" s="43"/>
+      <c r="G206" s="44"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="G207" s="43"/>
+      <c r="G207" s="44"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="G208" s="43"/>
+      <c r="G208" s="44"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="G209" s="43"/>
+      <c r="G209" s="44"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="G210" s="43"/>
+      <c r="G210" s="44"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="G211" s="43"/>
+      <c r="G211" s="44"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="G212" s="43"/>
+      <c r="G212" s="44"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="G213" s="43"/>
+      <c r="G213" s="44"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="G214" s="43"/>
+      <c r="G214" s="44"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="G215" s="43"/>
+      <c r="G215" s="44"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="G216" s="43"/>
+      <c r="G216" s="44"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="G217" s="43"/>
+      <c r="G217" s="44"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="G218" s="43"/>
+      <c r="G218" s="44"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="G219" s="43"/>
+      <c r="G219" s="44"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="G220" s="43"/>
+      <c r="G220" s="44"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="G221" s="43"/>
+      <c r="G221" s="44"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="G222" s="43"/>
+      <c r="G222" s="44"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="G223" s="43"/>
+      <c r="G223" s="44"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="G224" s="43"/>
+      <c r="G224" s="44"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="G225" s="43"/>
+      <c r="G225" s="44"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="G226" s="43"/>
+      <c r="G226" s="44"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="G227" s="43"/>
+      <c r="G227" s="44"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="G228" s="43"/>
+      <c r="G228" s="44"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="G229" s="43"/>
+      <c r="G229" s="44"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="G230" s="43"/>
+      <c r="G230" s="44"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="G231" s="43"/>
+      <c r="G231" s="44"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="G232" s="43"/>
+      <c r="G232" s="44"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="G233" s="43"/>
+      <c r="G233" s="44"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="G234" s="43"/>
+      <c r="G234" s="44"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="G235" s="43"/>
+      <c r="G235" s="44"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="G236" s="43"/>
+      <c r="G236" s="44"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="G237" s="43"/>
+      <c r="G237" s="44"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="G238" s="43"/>
+      <c r="G238" s="44"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="G239" s="43"/>
+      <c r="G239" s="44"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="G240" s="43"/>
+      <c r="G240" s="44"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="G241" s="43"/>
+      <c r="G241" s="44"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="G242" s="43"/>
+      <c r="G242" s="44"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="G243" s="43"/>
+      <c r="G243" s="44"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="G244" s="43"/>
+      <c r="G244" s="44"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="G245" s="43"/>
+      <c r="G245" s="44"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="G246" s="43"/>
+      <c r="G246" s="44"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="G247" s="43"/>
+      <c r="G247" s="44"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="G248" s="43"/>
+      <c r="G248" s="44"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="G249" s="43"/>
+      <c r="G249" s="44"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="G250" s="43"/>
+      <c r="G250" s="44"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="G251" s="43"/>
+      <c r="G251" s="44"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="G252" s="43"/>
+      <c r="G252" s="44"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="G253" s="43"/>
+      <c r="G253" s="44"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="G254" s="43"/>
+      <c r="G254" s="44"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="G255" s="43"/>
+      <c r="G255" s="44"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="G256" s="43"/>
+      <c r="G256" s="44"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="G257" s="43"/>
+      <c r="G257" s="44"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="G258" s="43"/>
+      <c r="G258" s="44"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="G259" s="43"/>
+      <c r="G259" s="44"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="G260" s="43"/>
+      <c r="G260" s="44"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="G261" s="43"/>
+      <c r="G261" s="44"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="G262" s="43"/>
+      <c r="G262" s="44"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="G263" s="43"/>
+      <c r="G263" s="44"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="G264" s="43"/>
+      <c r="G264" s="44"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="G265" s="43"/>
+      <c r="G265" s="44"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="G266" s="43"/>
+      <c r="G266" s="44"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="G267" s="43"/>
+      <c r="G267" s="44"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="G268" s="43"/>
+      <c r="G268" s="44"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="G269" s="43"/>
+      <c r="G269" s="44"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="G270" s="43"/>
+      <c r="G270" s="44"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="G271" s="43"/>
+      <c r="G271" s="44"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="G272" s="43"/>
+      <c r="G272" s="44"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="G273" s="43"/>
+      <c r="G273" s="44"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="G274" s="43"/>
+      <c r="G274" s="44"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="G275" s="43"/>
+      <c r="G275" s="44"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="G276" s="43"/>
+      <c r="G276" s="44"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="G277" s="43"/>
+      <c r="G277" s="44"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="G278" s="43"/>
+      <c r="G278" s="44"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="G279" s="43"/>
+      <c r="G279" s="44"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="G280" s="43"/>
+      <c r="G280" s="44"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="G281" s="43"/>
+      <c r="G281" s="44"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="G282" s="43"/>
+      <c r="G282" s="44"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="G283" s="43"/>
+      <c r="G283" s="44"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="G284" s="43"/>
+      <c r="G284" s="44"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="G285" s="43"/>
+      <c r="G285" s="44"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="G286" s="43"/>
+      <c r="G286" s="44"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="G287" s="43"/>
+      <c r="G287" s="44"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="G288" s="43"/>
+      <c r="G288" s="44"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="G289" s="43"/>
+      <c r="G289" s="44"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="G290" s="43"/>
+      <c r="G290" s="44"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="G291" s="43"/>
+      <c r="G291" s="44"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="G292" s="43"/>
+      <c r="G292" s="44"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="G293" s="43"/>
+      <c r="G293" s="44"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="G294" s="43"/>
+      <c r="G294" s="44"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="G295" s="43"/>
+      <c r="G295" s="44"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="G296" s="43"/>
+      <c r="G296" s="44"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="G297" s="43"/>
+      <c r="G297" s="44"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="G298" s="43"/>
+      <c r="G298" s="44"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="G299" s="43"/>
+      <c r="G299" s="44"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="G300" s="43"/>
+      <c r="G300" s="44"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="G301" s="43"/>
+      <c r="G301" s="44"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="G302" s="43"/>
+      <c r="G302" s="44"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="G303" s="43"/>
+      <c r="G303" s="44"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="G304" s="43"/>
+      <c r="G304" s="44"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="G305" s="43"/>
+      <c r="G305" s="44"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="G306" s="43"/>
+      <c r="G306" s="44"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="G307" s="43"/>
+      <c r="G307" s="44"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="G308" s="43"/>
+      <c r="G308" s="44"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="G309" s="43"/>
+      <c r="G309" s="44"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="G310" s="43"/>
+      <c r="G310" s="44"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="G311" s="43"/>
+      <c r="G311" s="44"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="G312" s="43"/>
+      <c r="G312" s="44"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="G313" s="43"/>
+      <c r="G313" s="44"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="G314" s="43"/>
+      <c r="G314" s="44"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="G315" s="43"/>
+      <c r="G315" s="44"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="G316" s="43"/>
+      <c r="G316" s="44"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="G317" s="43"/>
+      <c r="G317" s="44"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="G318" s="43"/>
+      <c r="G318" s="44"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="G319" s="43"/>
+      <c r="G319" s="44"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="G320" s="43"/>
+      <c r="G320" s="44"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="G321" s="43"/>
+      <c r="G321" s="44"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="G322" s="43"/>
+      <c r="G322" s="44"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="G323" s="43"/>
+      <c r="G323" s="44"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="G324" s="43"/>
+      <c r="G324" s="44"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="G325" s="43"/>
+      <c r="G325" s="44"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="G326" s="43"/>
+      <c r="G326" s="44"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="G327" s="43"/>
+      <c r="G327" s="44"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="G328" s="43"/>
+      <c r="G328" s="44"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="G329" s="43"/>
+      <c r="G329" s="44"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="G330" s="43"/>
+      <c r="G330" s="44"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="G331" s="43"/>
+      <c r="G331" s="44"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="G332" s="43"/>
+      <c r="G332" s="44"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="G333" s="43"/>
+      <c r="G333" s="44"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="G334" s="43"/>
+      <c r="G334" s="44"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="G335" s="43"/>
+      <c r="G335" s="44"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="G336" s="43"/>
+      <c r="G336" s="44"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="G337" s="43"/>
+      <c r="G337" s="44"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="G338" s="43"/>
+      <c r="G338" s="44"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="G339" s="43"/>
+      <c r="G339" s="44"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="G340" s="43"/>
+      <c r="G340" s="44"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="G341" s="43"/>
+      <c r="G341" s="44"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="G342" s="43"/>
+      <c r="G342" s="44"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="G343" s="43"/>
+      <c r="G343" s="44"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="G344" s="43"/>
+      <c r="G344" s="44"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="G345" s="43"/>
+      <c r="G345" s="44"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="G346" s="43"/>
+      <c r="G346" s="44"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="G347" s="43"/>
+      <c r="G347" s="44"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="G348" s="43"/>
+      <c r="G348" s="44"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="G349" s="43"/>
+      <c r="G349" s="44"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="G350" s="43"/>
+      <c r="G350" s="44"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="G351" s="43"/>
+      <c r="G351" s="44"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="G352" s="43"/>
+      <c r="G352" s="44"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="G353" s="43"/>
+      <c r="G353" s="44"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="G354" s="43"/>
+      <c r="G354" s="44"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="G355" s="43"/>
+      <c r="G355" s="44"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="G356" s="43"/>
+      <c r="G356" s="44"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="G357" s="43"/>
+      <c r="G357" s="44"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="G358" s="43"/>
+      <c r="G358" s="44"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="G359" s="43"/>
+      <c r="G359" s="44"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="G360" s="43"/>
+      <c r="G360" s="44"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="G361" s="43"/>
+      <c r="G361" s="44"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="G362" s="43"/>
+      <c r="G362" s="44"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="G363" s="43"/>
+      <c r="G363" s="44"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="G364" s="43"/>
+      <c r="G364" s="44"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="G365" s="43"/>
+      <c r="G365" s="44"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="G366" s="43"/>
+      <c r="G366" s="44"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="G367" s="43"/>
+      <c r="G367" s="44"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="G368" s="43"/>
+      <c r="G368" s="44"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="G369" s="43"/>
+      <c r="G369" s="44"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="G370" s="43"/>
+      <c r="G370" s="44"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="G371" s="43"/>
+      <c r="G371" s="44"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="G372" s="43"/>
+      <c r="G372" s="44"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="G373" s="43"/>
+      <c r="G373" s="44"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="G374" s="43"/>
+      <c r="G374" s="44"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="G375" s="43"/>
+      <c r="G375" s="44"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="G376" s="43"/>
+      <c r="G376" s="44"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="G377" s="43"/>
+      <c r="G377" s="44"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="G378" s="43"/>
+      <c r="G378" s="44"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="G379" s="43"/>
+      <c r="G379" s="44"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="G380" s="43"/>
+      <c r="G380" s="44"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="G381" s="43"/>
+      <c r="G381" s="44"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="G382" s="43"/>
+      <c r="G382" s="44"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="G383" s="43"/>
+      <c r="G383" s="44"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="G384" s="43"/>
+      <c r="G384" s="44"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="G385" s="43"/>
+      <c r="G385" s="44"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="G386" s="43"/>
+      <c r="G386" s="44"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="G387" s="43"/>
+      <c r="G387" s="44"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="G388" s="43"/>
+      <c r="G388" s="44"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="G389" s="43"/>
+      <c r="G389" s="44"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="G390" s="43"/>
+      <c r="G390" s="44"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="G391" s="43"/>
+      <c r="G391" s="44"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="G392" s="43"/>
+      <c r="G392" s="44"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="G393" s="43"/>
+      <c r="G393" s="44"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="G394" s="43"/>
+      <c r="G394" s="44"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="G395" s="43"/>
+      <c r="G395" s="44"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="G396" s="43"/>
+      <c r="G396" s="44"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="G397" s="43"/>
+      <c r="G397" s="44"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="G398" s="43"/>
+      <c r="G398" s="44"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="G399" s="43"/>
+      <c r="G399" s="44"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="G400" s="43"/>
+      <c r="G400" s="44"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="G401" s="43"/>
+      <c r="G401" s="44"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="G402" s="43"/>
+      <c r="G402" s="44"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="G403" s="43"/>
+      <c r="G403" s="44"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="G404" s="43"/>
+      <c r="G404" s="44"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="G405" s="43"/>
+      <c r="G405" s="44"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="G406" s="43"/>
+      <c r="G406" s="44"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="G407" s="43"/>
+      <c r="G407" s="44"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="G408" s="43"/>
+      <c r="G408" s="44"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="G409" s="43"/>
+      <c r="G409" s="44"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="G410" s="43"/>
+      <c r="G410" s="44"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="G411" s="43"/>
+      <c r="G411" s="44"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="G412" s="43"/>
+      <c r="G412" s="44"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="G413" s="43"/>
+      <c r="G413" s="44"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="G414" s="43"/>
+      <c r="G414" s="44"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="G415" s="43"/>
+      <c r="G415" s="44"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="G416" s="43"/>
+      <c r="G416" s="44"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="G417" s="43"/>
+      <c r="G417" s="44"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="G418" s="43"/>
+      <c r="G418" s="44"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="G419" s="43"/>
+      <c r="G419" s="44"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="G420" s="43"/>
+      <c r="G420" s="44"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="G421" s="43"/>
+      <c r="G421" s="44"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="G422" s="43"/>
+      <c r="G422" s="44"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="G423" s="43"/>
+      <c r="G423" s="44"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="G424" s="43"/>
+      <c r="G424" s="44"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="G425" s="43"/>
+      <c r="G425" s="44"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="G426" s="43"/>
+      <c r="G426" s="44"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="G427" s="43"/>
+      <c r="G427" s="44"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="G428" s="43"/>
+      <c r="G428" s="44"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="G429" s="43"/>
+      <c r="G429" s="44"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="G430" s="43"/>
+      <c r="G430" s="44"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="G431" s="43"/>
+      <c r="G431" s="44"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="G432" s="43"/>
+      <c r="G432" s="44"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="G433" s="43"/>
+      <c r="G433" s="44"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="G434" s="43"/>
+      <c r="G434" s="44"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="G435" s="43"/>
+      <c r="G435" s="44"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="G436" s="43"/>
+      <c r="G436" s="44"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="G437" s="43"/>
+      <c r="G437" s="44"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="G438" s="43"/>
+      <c r="G438" s="44"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="G439" s="43"/>
+      <c r="G439" s="44"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="G440" s="43"/>
+      <c r="G440" s="44"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="G441" s="43"/>
+      <c r="G441" s="44"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="G442" s="43"/>
+      <c r="G442" s="44"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="G443" s="43"/>
+      <c r="G443" s="44"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="G444" s="43"/>
+      <c r="G444" s="44"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="G445" s="43"/>
+      <c r="G445" s="44"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="G446" s="43"/>
+      <c r="G446" s="44"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="G447" s="43"/>
+      <c r="G447" s="44"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="G448" s="43"/>
+      <c r="G448" s="44"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="G449" s="43"/>
+      <c r="G449" s="44"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="G450" s="43"/>
+      <c r="G450" s="44"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="G451" s="43"/>
+      <c r="G451" s="44"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="G452" s="43"/>
+      <c r="G452" s="44"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="G453" s="43"/>
+      <c r="G453" s="44"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="G454" s="43"/>
+      <c r="G454" s="44"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="G455" s="43"/>
+      <c r="G455" s="44"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="G456" s="43"/>
+      <c r="G456" s="44"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="G457" s="43"/>
+      <c r="G457" s="44"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="G458" s="43"/>
+      <c r="G458" s="44"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="G459" s="43"/>
+      <c r="G459" s="44"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="G460" s="43"/>
+      <c r="G460" s="44"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="G461" s="43"/>
+      <c r="G461" s="44"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="G462" s="43"/>
+      <c r="G462" s="44"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="G463" s="43"/>
+      <c r="G463" s="44"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="G464" s="43"/>
+      <c r="G464" s="44"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="G465" s="43"/>
+      <c r="G465" s="44"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="G466" s="43"/>
+      <c r="G466" s="44"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="G467" s="43"/>
+      <c r="G467" s="44"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="G468" s="43"/>
+      <c r="G468" s="44"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="G469" s="43"/>
+      <c r="G469" s="44"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="G470" s="43"/>
+      <c r="G470" s="44"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="G471" s="43"/>
+      <c r="G471" s="44"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="G472" s="43"/>
+      <c r="G472" s="44"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="G473" s="43"/>
+      <c r="G473" s="44"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="G474" s="43"/>
+      <c r="G474" s="44"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="G475" s="43"/>
+      <c r="G475" s="44"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="G476" s="43"/>
+      <c r="G476" s="44"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="G477" s="43"/>
+      <c r="G477" s="44"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="G478" s="43"/>
+      <c r="G478" s="44"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="G479" s="43"/>
+      <c r="G479" s="44"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="G480" s="43"/>
+      <c r="G480" s="44"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="G481" s="43"/>
+      <c r="G481" s="44"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="G482" s="43"/>
+      <c r="G482" s="44"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="G483" s="43"/>
+      <c r="G483" s="44"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="G484" s="43"/>
+      <c r="G484" s="44"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="G485" s="43"/>
+      <c r="G485" s="44"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="G486" s="43"/>
+      <c r="G486" s="44"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="G487" s="43"/>
+      <c r="G487" s="44"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="G488" s="43"/>
+      <c r="G488" s="44"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="G489" s="43"/>
+      <c r="G489" s="44"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="G490" s="43"/>
+      <c r="G490" s="44"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="G491" s="43"/>
+      <c r="G491" s="44"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="G492" s="43"/>
+      <c r="G492" s="44"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="G493" s="43"/>
+      <c r="G493" s="44"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="G494" s="43"/>
+      <c r="G494" s="44"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="G495" s="43"/>
+      <c r="G495" s="44"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="G496" s="43"/>
+      <c r="G496" s="44"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="G497" s="43"/>
+      <c r="G497" s="44"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="G498" s="43"/>
+      <c r="G498" s="44"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="G499" s="43"/>
+      <c r="G499" s="44"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="G500" s="43"/>
+      <c r="G500" s="44"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="G501" s="43"/>
+      <c r="G501" s="44"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="G502" s="43"/>
+      <c r="G502" s="44"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="G503" s="43"/>
+      <c r="G503" s="44"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="G504" s="43"/>
+      <c r="G504" s="44"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="G505" s="43"/>
+      <c r="G505" s="44"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="G506" s="43"/>
+      <c r="G506" s="44"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="G507" s="43"/>
+      <c r="G507" s="44"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="G508" s="43"/>
+      <c r="G508" s="44"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="G509" s="43"/>
+      <c r="G509" s="44"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="G510" s="43"/>
+      <c r="G510" s="44"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="G511" s="43"/>
+      <c r="G511" s="44"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="G512" s="43"/>
+      <c r="G512" s="44"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="G513" s="43"/>
+      <c r="G513" s="44"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="G514" s="43"/>
+      <c r="G514" s="44"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="G515" s="43"/>
+      <c r="G515" s="44"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="G516" s="43"/>
+      <c r="G516" s="44"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="G517" s="43"/>
+      <c r="G517" s="44"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="G518" s="43"/>
+      <c r="G518" s="44"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="G519" s="43"/>
+      <c r="G519" s="44"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="G520" s="43"/>
+      <c r="G520" s="44"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="G521" s="43"/>
+      <c r="G521" s="44"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="G522" s="43"/>
+      <c r="G522" s="44"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="G523" s="43"/>
+      <c r="G523" s="44"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="G524" s="43"/>
+      <c r="G524" s="44"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="G525" s="43"/>
+      <c r="G525" s="44"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="G526" s="43"/>
+      <c r="G526" s="44"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="G527" s="43"/>
+      <c r="G527" s="44"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="G528" s="43"/>
+      <c r="G528" s="44"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="G529" s="43"/>
+      <c r="G529" s="44"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="G530" s="43"/>
+      <c r="G530" s="44"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="G531" s="43"/>
+      <c r="G531" s="44"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="G532" s="43"/>
+      <c r="G532" s="44"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="G533" s="43"/>
+      <c r="G533" s="44"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="G534" s="43"/>
+      <c r="G534" s="44"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="G535" s="43"/>
+      <c r="G535" s="44"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="G536" s="43"/>
+      <c r="G536" s="44"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="G537" s="43"/>
+      <c r="G537" s="44"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="G538" s="43"/>
+      <c r="G538" s="44"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="G539" s="43"/>
+      <c r="G539" s="44"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="G540" s="43"/>
+      <c r="G540" s="44"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="G541" s="43"/>
+      <c r="G541" s="44"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="G542" s="43"/>
+      <c r="G542" s="44"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="G543" s="43"/>
+      <c r="G543" s="44"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="G544" s="43"/>
+      <c r="G544" s="44"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="G545" s="43"/>
+      <c r="G545" s="44"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="G546" s="43"/>
+      <c r="G546" s="44"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="G547" s="43"/>
+      <c r="G547" s="44"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="G548" s="43"/>
+      <c r="G548" s="44"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="G549" s="43"/>
+      <c r="G549" s="44"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="G550" s="43"/>
+      <c r="G550" s="44"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="G551" s="43"/>
+      <c r="G551" s="44"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="G552" s="43"/>
+      <c r="G552" s="44"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="G553" s="43"/>
+      <c r="G553" s="44"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="G554" s="43"/>
+      <c r="G554" s="44"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="G555" s="43"/>
+      <c r="G555" s="44"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="G556" s="43"/>
+      <c r="G556" s="44"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="G557" s="43"/>
+      <c r="G557" s="44"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="G558" s="43"/>
+      <c r="G558" s="44"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="G559" s="43"/>
+      <c r="G559" s="44"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="G560" s="43"/>
+      <c r="G560" s="44"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="G561" s="43"/>
+      <c r="G561" s="44"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="G562" s="43"/>
+      <c r="G562" s="44"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="G563" s="43"/>
+      <c r="G563" s="44"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="G564" s="43"/>
+      <c r="G564" s="44"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="G565" s="43"/>
+      <c r="G565" s="44"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="G566" s="43"/>
+      <c r="G566" s="44"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="G567" s="43"/>
+      <c r="G567" s="44"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="G568" s="43"/>
+      <c r="G568" s="44"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="G569" s="43"/>
+      <c r="G569" s="44"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="G570" s="43"/>
+      <c r="G570" s="44"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="G571" s="43"/>
+      <c r="G571" s="44"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="G572" s="43"/>
+      <c r="G572" s="44"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="G573" s="43"/>
+      <c r="G573" s="44"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="G574" s="43"/>
+      <c r="G574" s="44"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="G575" s="43"/>
+      <c r="G575" s="44"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="G576" s="43"/>
+      <c r="G576" s="44"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="G577" s="43"/>
+      <c r="G577" s="44"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="G578" s="43"/>
+      <c r="G578" s="44"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="G579" s="43"/>
+      <c r="G579" s="44"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="G580" s="43"/>
+      <c r="G580" s="44"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="G581" s="43"/>
+      <c r="G581" s="44"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="G582" s="43"/>
+      <c r="G582" s="44"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="G583" s="43"/>
+      <c r="G583" s="44"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="G584" s="43"/>
+      <c r="G584" s="44"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="G585" s="43"/>
+      <c r="G585" s="44"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="G586" s="43"/>
+      <c r="G586" s="44"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="G587" s="43"/>
+      <c r="G587" s="44"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="G588" s="43"/>
+      <c r="G588" s="44"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="G589" s="43"/>
+      <c r="G589" s="44"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="G590" s="43"/>
+      <c r="G590" s="44"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="G591" s="43"/>
+      <c r="G591" s="44"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="G592" s="43"/>
+      <c r="G592" s="44"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="G593" s="43"/>
+      <c r="G593" s="44"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="G594" s="43"/>
+      <c r="G594" s="44"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="G595" s="43"/>
+      <c r="G595" s="44"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="G596" s="43"/>
+      <c r="G596" s="44"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="G597" s="43"/>
+      <c r="G597" s="44"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="G598" s="43"/>
+      <c r="G598" s="44"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="G599" s="43"/>
+      <c r="G599" s="44"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="G600" s="43"/>
+      <c r="G600" s="44"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="G601" s="43"/>
+      <c r="G601" s="44"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="G602" s="43"/>
+      <c r="G602" s="44"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="G603" s="43"/>
+      <c r="G603" s="44"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="G604" s="43"/>
+      <c r="G604" s="44"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="G605" s="43"/>
+      <c r="G605" s="44"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="G606" s="43"/>
+      <c r="G606" s="44"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="G607" s="43"/>
+      <c r="G607" s="44"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="G608" s="43"/>
+      <c r="G608" s="44"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="G609" s="43"/>
+      <c r="G609" s="44"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="G610" s="43"/>
+      <c r="G610" s="44"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="G611" s="43"/>
+      <c r="G611" s="44"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="G612" s="43"/>
+      <c r="G612" s="44"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="G613" s="43"/>
+      <c r="G613" s="44"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="G614" s="43"/>
+      <c r="G614" s="44"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="G615" s="43"/>
+      <c r="G615" s="44"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="G616" s="43"/>
+      <c r="G616" s="44"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="G617" s="43"/>
+      <c r="G617" s="44"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="G618" s="43"/>
+      <c r="G618" s="44"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="G619" s="43"/>
+      <c r="G619" s="44"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="G620" s="43"/>
+      <c r="G620" s="44"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="G621" s="43"/>
+      <c r="G621" s="44"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="G622" s="43"/>
+      <c r="G622" s="44"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="G623" s="43"/>
+      <c r="G623" s="44"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="G624" s="43"/>
+      <c r="G624" s="44"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="G625" s="43"/>
+      <c r="G625" s="44"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="G626" s="43"/>
+      <c r="G626" s="44"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="G627" s="43"/>
+      <c r="G627" s="44"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="G628" s="43"/>
+      <c r="G628" s="44"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="G629" s="43"/>
+      <c r="G629" s="44"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="G630" s="43"/>
+      <c r="G630" s="44"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="G631" s="43"/>
+      <c r="G631" s="44"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="G632" s="43"/>
+      <c r="G632" s="44"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="G633" s="43"/>
+      <c r="G633" s="44"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="G634" s="43"/>
+      <c r="G634" s="44"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="G635" s="43"/>
+      <c r="G635" s="44"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="G636" s="43"/>
+      <c r="G636" s="44"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="G637" s="43"/>
+      <c r="G637" s="44"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="G638" s="43"/>
+      <c r="G638" s="44"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="G639" s="43"/>
+      <c r="G639" s="44"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="G640" s="43"/>
+      <c r="G640" s="44"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="G641" s="43"/>
+      <c r="G641" s="44"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="G642" s="43"/>
+      <c r="G642" s="44"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="G643" s="43"/>
+      <c r="G643" s="44"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="G644" s="43"/>
+      <c r="G644" s="44"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="G645" s="43"/>
+      <c r="G645" s="44"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="G646" s="43"/>
+      <c r="G646" s="44"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="G647" s="43"/>
+      <c r="G647" s="44"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="G648" s="43"/>
+      <c r="G648" s="44"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="G649" s="43"/>
+      <c r="G649" s="44"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="G650" s="43"/>
+      <c r="G650" s="44"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="G651" s="43"/>
+      <c r="G651" s="44"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="G652" s="43"/>
+      <c r="G652" s="44"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="G653" s="43"/>
+      <c r="G653" s="44"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="G654" s="43"/>
+      <c r="G654" s="44"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="G655" s="43"/>
+      <c r="G655" s="44"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="G656" s="43"/>
+      <c r="G656" s="44"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="G657" s="43"/>
+      <c r="G657" s="44"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="G658" s="43"/>
+      <c r="G658" s="44"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="G659" s="43"/>
+      <c r="G659" s="44"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="G660" s="43"/>
+      <c r="G660" s="44"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="G661" s="43"/>
+      <c r="G661" s="44"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="G662" s="43"/>
+      <c r="G662" s="44"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="G663" s="43"/>
+      <c r="G663" s="44"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="G664" s="43"/>
+      <c r="G664" s="44"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="G665" s="43"/>
+      <c r="G665" s="44"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="G666" s="43"/>
+      <c r="G666" s="44"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="G667" s="43"/>
+      <c r="G667" s="44"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="G668" s="43"/>
+      <c r="G668" s="44"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="G669" s="43"/>
+      <c r="G669" s="44"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="G670" s="43"/>
+      <c r="G670" s="44"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="G671" s="43"/>
+      <c r="G671" s="44"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="G672" s="43"/>
+      <c r="G672" s="44"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="G673" s="43"/>
+      <c r="G673" s="44"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="G674" s="43"/>
+      <c r="G674" s="44"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="G675" s="43"/>
+      <c r="G675" s="44"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="G676" s="43"/>
+      <c r="G676" s="44"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="G677" s="43"/>
+      <c r="G677" s="44"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="G678" s="43"/>
+      <c r="G678" s="44"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="G679" s="43"/>
+      <c r="G679" s="44"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="G680" s="43"/>
+      <c r="G680" s="44"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="G681" s="43"/>
+      <c r="G681" s="44"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="G682" s="43"/>
+      <c r="G682" s="44"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="G683" s="43"/>
+      <c r="G683" s="44"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="G684" s="43"/>
+      <c r="G684" s="44"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="G685" s="43"/>
+      <c r="G685" s="44"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="G686" s="43"/>
+      <c r="G686" s="44"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="G687" s="43"/>
+      <c r="G687" s="44"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="G688" s="43"/>
+      <c r="G688" s="44"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="G689" s="43"/>
+      <c r="G689" s="44"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="G690" s="43"/>
+      <c r="G690" s="44"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="G691" s="43"/>
+      <c r="G691" s="44"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="G692" s="43"/>
+      <c r="G692" s="44"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="G693" s="43"/>
+      <c r="G693" s="44"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="G694" s="43"/>
+      <c r="G694" s="44"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="G695" s="43"/>
+      <c r="G695" s="44"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="G696" s="43"/>
+      <c r="G696" s="44"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="G697" s="43"/>
+      <c r="G697" s="44"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="G698" s="43"/>
+      <c r="G698" s="44"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="G699" s="43"/>
+      <c r="G699" s="44"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="G700" s="43"/>
+      <c r="G700" s="44"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="G701" s="43"/>
+      <c r="G701" s="44"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="G702" s="43"/>
+      <c r="G702" s="44"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="G703" s="43"/>
+      <c r="G703" s="44"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="G704" s="43"/>
+      <c r="G704" s="44"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="G705" s="43"/>
+      <c r="G705" s="44"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="G706" s="43"/>
+      <c r="G706" s="44"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="G707" s="43"/>
+      <c r="G707" s="44"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="G708" s="43"/>
+      <c r="G708" s="44"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="G709" s="43"/>
+      <c r="G709" s="44"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="G710" s="43"/>
+      <c r="G710" s="44"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="G711" s="43"/>
+      <c r="G711" s="44"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="G712" s="43"/>
+      <c r="G712" s="44"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="G713" s="43"/>
+      <c r="G713" s="44"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="G714" s="43"/>
+      <c r="G714" s="44"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="G715" s="43"/>
+      <c r="G715" s="44"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="G716" s="43"/>
+      <c r="G716" s="44"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="G717" s="43"/>
+      <c r="G717" s="44"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="G718" s="43"/>
+      <c r="G718" s="44"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="G719" s="43"/>
+      <c r="G719" s="44"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="G720" s="43"/>
+      <c r="G720" s="44"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="G721" s="43"/>
+      <c r="G721" s="44"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="G722" s="43"/>
+      <c r="G722" s="44"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="G723" s="43"/>
+      <c r="G723" s="44"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="G724" s="43"/>
+      <c r="G724" s="44"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="G725" s="43"/>
+      <c r="G725" s="44"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="G726" s="43"/>
+      <c r="G726" s="44"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="G727" s="43"/>
+      <c r="G727" s="44"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="G728" s="43"/>
+      <c r="G728" s="44"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="G729" s="43"/>
+      <c r="G729" s="44"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="G730" s="43"/>
+      <c r="G730" s="44"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="G731" s="43"/>
+      <c r="G731" s="44"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="G732" s="43"/>
+      <c r="G732" s="44"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="G733" s="43"/>
+      <c r="G733" s="44"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="G734" s="43"/>
+      <c r="G734" s="44"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="G735" s="43"/>
+      <c r="G735" s="44"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="G736" s="43"/>
+      <c r="G736" s="44"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="G737" s="43"/>
+      <c r="G737" s="44"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="G738" s="43"/>
+      <c r="G738" s="44"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="G739" s="43"/>
+      <c r="G739" s="44"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="G740" s="43"/>
+      <c r="G740" s="44"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="G741" s="43"/>
+      <c r="G741" s="44"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="G742" s="43"/>
+      <c r="G742" s="44"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="G743" s="43"/>
+      <c r="G743" s="44"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="G744" s="43"/>
+      <c r="G744" s="44"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="G745" s="43"/>
+      <c r="G745" s="44"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="G746" s="43"/>
+      <c r="G746" s="44"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="G747" s="43"/>
+      <c r="G747" s="44"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="G748" s="43"/>
+      <c r="G748" s="44"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="G749" s="43"/>
+      <c r="G749" s="44"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="G750" s="43"/>
+      <c r="G750" s="44"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="G751" s="43"/>
+      <c r="G751" s="44"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="G752" s="43"/>
+      <c r="G752" s="44"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="G753" s="43"/>
+      <c r="G753" s="44"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="G754" s="43"/>
+      <c r="G754" s="44"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="G755" s="43"/>
+      <c r="G755" s="44"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="G756" s="43"/>
+      <c r="G756" s="44"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="G757" s="43"/>
+      <c r="G757" s="44"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="G758" s="43"/>
+      <c r="G758" s="44"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="G759" s="43"/>
+      <c r="G759" s="44"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="G760" s="43"/>
+      <c r="G760" s="44"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="G761" s="43"/>
+      <c r="G761" s="44"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="G762" s="43"/>
+      <c r="G762" s="44"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="G763" s="43"/>
+      <c r="G763" s="44"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="G764" s="43"/>
+      <c r="G764" s="44"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="G765" s="43"/>
+      <c r="G765" s="44"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="G766" s="43"/>
+      <c r="G766" s="44"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="G767" s="43"/>
+      <c r="G767" s="44"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="G768" s="43"/>
+      <c r="G768" s="44"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="G769" s="43"/>
+      <c r="G769" s="44"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="G770" s="43"/>
+      <c r="G770" s="44"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="G771" s="43"/>
+      <c r="G771" s="44"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="G772" s="43"/>
+      <c r="G772" s="44"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="G773" s="43"/>
+      <c r="G773" s="44"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="G774" s="43"/>
+      <c r="G774" s="44"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="G775" s="43"/>
+      <c r="G775" s="44"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="G776" s="43"/>
+      <c r="G776" s="44"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="G777" s="43"/>
+      <c r="G777" s="44"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="G778" s="43"/>
+      <c r="G778" s="44"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="G779" s="43"/>
+      <c r="G779" s="44"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="G780" s="43"/>
+      <c r="G780" s="44"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="G781" s="43"/>
+      <c r="G781" s="44"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="G782" s="43"/>
+      <c r="G782" s="44"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="G783" s="43"/>
+      <c r="G783" s="44"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="G784" s="43"/>
+      <c r="G784" s="44"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="G785" s="43"/>
+      <c r="G785" s="44"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="G786" s="43"/>
+      <c r="G786" s="44"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="G787" s="43"/>
+      <c r="G787" s="44"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="G788" s="43"/>
+      <c r="G788" s="44"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="G789" s="43"/>
+      <c r="G789" s="44"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="G790" s="43"/>
+      <c r="G790" s="44"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="G791" s="43"/>
+      <c r="G791" s="44"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="G792" s="43"/>
+      <c r="G792" s="44"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="G793" s="43"/>
+      <c r="G793" s="44"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="G794" s="43"/>
+      <c r="G794" s="44"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="G795" s="43"/>
+      <c r="G795" s="44"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="G796" s="43"/>
+      <c r="G796" s="44"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="G797" s="43"/>
+      <c r="G797" s="44"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="G798" s="43"/>
+      <c r="G798" s="44"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="G799" s="43"/>
+      <c r="G799" s="44"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="G800" s="43"/>
+      <c r="G800" s="44"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="G801" s="43"/>
+      <c r="G801" s="44"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="G802" s="43"/>
+      <c r="G802" s="44"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="G803" s="43"/>
+      <c r="G803" s="44"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="G804" s="43"/>
+      <c r="G804" s="44"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="G805" s="43"/>
+      <c r="G805" s="44"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="G806" s="43"/>
+      <c r="G806" s="44"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="G807" s="43"/>
+      <c r="G807" s="44"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="G808" s="43"/>
+      <c r="G808" s="44"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="G809" s="43"/>
+      <c r="G809" s="44"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="G810" s="43"/>
+      <c r="G810" s="44"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="G811" s="43"/>
+      <c r="G811" s="44"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="G812" s="43"/>
+      <c r="G812" s="44"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="G813" s="43"/>
+      <c r="G813" s="44"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="G814" s="43"/>
+      <c r="G814" s="44"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="G815" s="43"/>
+      <c r="G815" s="44"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="G816" s="43"/>
+      <c r="G816" s="44"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="G817" s="43"/>
+      <c r="G817" s="44"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="G818" s="43"/>
+      <c r="G818" s="44"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="G819" s="43"/>
+      <c r="G819" s="44"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="G820" s="43"/>
+      <c r="G820" s="44"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="G821" s="43"/>
+      <c r="G821" s="44"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="G822" s="43"/>
+      <c r="G822" s="44"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="G823" s="43"/>
+      <c r="G823" s="44"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="G824" s="43"/>
+      <c r="G824" s="44"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="G825" s="43"/>
+      <c r="G825" s="44"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="G826" s="43"/>
+      <c r="G826" s="44"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="G827" s="43"/>
+      <c r="G827" s="44"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="G828" s="43"/>
+      <c r="G828" s="44"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="G829" s="43"/>
+      <c r="G829" s="44"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="G830" s="43"/>
+      <c r="G830" s="44"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="G831" s="43"/>
+      <c r="G831" s="44"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="G832" s="43"/>
+      <c r="G832" s="44"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="G833" s="43"/>
+      <c r="G833" s="44"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="G834" s="43"/>
+      <c r="G834" s="44"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="G835" s="43"/>
+      <c r="G835" s="44"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="G836" s="43"/>
+      <c r="G836" s="44"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="G837" s="43"/>
+      <c r="G837" s="44"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="G838" s="43"/>
+      <c r="G838" s="44"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="G839" s="43"/>
+      <c r="G839" s="44"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="G840" s="43"/>
+      <c r="G840" s="44"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="G841" s="43"/>
+      <c r="G841" s="44"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="G842" s="43"/>
+      <c r="G842" s="44"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="G843" s="43"/>
+      <c r="G843" s="44"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="G844" s="43"/>
+      <c r="G844" s="44"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="G845" s="43"/>
+      <c r="G845" s="44"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="G846" s="43"/>
+      <c r="G846" s="44"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="G847" s="43"/>
+      <c r="G847" s="44"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="G848" s="43"/>
+      <c r="G848" s="44"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="G849" s="43"/>
+      <c r="G849" s="44"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="G850" s="43"/>
+      <c r="G850" s="44"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="G851" s="43"/>
+      <c r="G851" s="44"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="G852" s="43"/>
+      <c r="G852" s="44"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="G853" s="43"/>
+      <c r="G853" s="44"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="G854" s="43"/>
+      <c r="G854" s="44"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="G855" s="43"/>
+      <c r="G855" s="44"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="G856" s="43"/>
+      <c r="G856" s="44"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="G857" s="43"/>
+      <c r="G857" s="44"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="G858" s="43"/>
+      <c r="G858" s="44"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="G859" s="43"/>
+      <c r="G859" s="44"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="G860" s="43"/>
+      <c r="G860" s="44"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="G861" s="43"/>
+      <c r="G861" s="44"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="G862" s="43"/>
+      <c r="G862" s="44"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="G863" s="43"/>
+      <c r="G863" s="44"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="G864" s="43"/>
+      <c r="G864" s="44"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="G865" s="43"/>
+      <c r="G865" s="44"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="G866" s="43"/>
+      <c r="G866" s="44"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="G867" s="43"/>
+      <c r="G867" s="44"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="G868" s="43"/>
+      <c r="G868" s="44"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="G869" s="43"/>
+      <c r="G869" s="44"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="G870" s="43"/>
+      <c r="G870" s="44"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="G871" s="43"/>
+      <c r="G871" s="44"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="G872" s="43"/>
+      <c r="G872" s="44"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="G873" s="43"/>
+      <c r="G873" s="44"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="G874" s="43"/>
+      <c r="G874" s="44"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="G875" s="43"/>
+      <c r="G875" s="44"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="G876" s="43"/>
+      <c r="G876" s="44"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="G877" s="43"/>
+      <c r="G877" s="44"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="G878" s="43"/>
+      <c r="G878" s="44"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="G879" s="43"/>
+      <c r="G879" s="44"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="G880" s="43"/>
+      <c r="G880" s="44"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="G881" s="43"/>
+      <c r="G881" s="44"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="G882" s="43"/>
+      <c r="G882" s="44"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="G883" s="43"/>
+      <c r="G883" s="44"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="G884" s="43"/>
+      <c r="G884" s="44"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="G885" s="43"/>
+      <c r="G885" s="44"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="G886" s="43"/>
+      <c r="G886" s="44"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="G887" s="43"/>
+      <c r="G887" s="44"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="G888" s="43"/>
+      <c r="G888" s="44"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="G889" s="43"/>
+      <c r="G889" s="44"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="G890" s="43"/>
+      <c r="G890" s="44"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="G891" s="43"/>
+      <c r="G891" s="44"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="G892" s="43"/>
+      <c r="G892" s="44"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="G893" s="43"/>
+      <c r="G893" s="44"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="G894" s="43"/>
+      <c r="G894" s="44"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="G895" s="43"/>
+      <c r="G895" s="44"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="G896" s="43"/>
+      <c r="G896" s="44"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="G897" s="43"/>
+      <c r="G897" s="44"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="G898" s="43"/>
+      <c r="G898" s="44"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="G899" s="43"/>
+      <c r="G899" s="44"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="G900" s="43"/>
+      <c r="G900" s="44"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="G901" s="43"/>
+      <c r="G901" s="44"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="G902" s="43"/>
+      <c r="G902" s="44"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="G903" s="43"/>
+      <c r="G903" s="44"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="G904" s="43"/>
+      <c r="G904" s="44"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="G905" s="43"/>
+      <c r="G905" s="44"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="G906" s="43"/>
+      <c r="G906" s="44"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="G907" s="43"/>
+      <c r="G907" s="44"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="G908" s="43"/>
+      <c r="G908" s="44"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="G909" s="43"/>
+      <c r="G909" s="44"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="G910" s="43"/>
+      <c r="G910" s="44"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="G911" s="43"/>
+      <c r="G911" s="44"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="G912" s="43"/>
+      <c r="G912" s="44"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="G913" s="43"/>
+      <c r="G913" s="44"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="G914" s="43"/>
+      <c r="G914" s="44"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="G915" s="43"/>
+      <c r="G915" s="44"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="G916" s="43"/>
+      <c r="G916" s="44"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="G917" s="43"/>
+      <c r="G917" s="44"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="G918" s="43"/>
+      <c r="G918" s="44"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="G919" s="43"/>
+      <c r="G919" s="44"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="G920" s="43"/>
+      <c r="G920" s="44"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="G921" s="43"/>
+      <c r="G921" s="44"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="G922" s="43"/>
+      <c r="G922" s="44"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="G923" s="43"/>
+      <c r="G923" s="44"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="G924" s="43"/>
+      <c r="G924" s="44"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="G925" s="43"/>
+      <c r="G925" s="44"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="G926" s="43"/>
+      <c r="G926" s="44"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="G927" s="43"/>
+      <c r="G927" s="44"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="G928" s="43"/>
+      <c r="G928" s="44"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="G929" s="43"/>
+      <c r="G929" s="44"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="G930" s="43"/>
+      <c r="G930" s="44"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="G931" s="43"/>
+      <c r="G931" s="44"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="G932" s="43"/>
+      <c r="G932" s="44"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="G933" s="43"/>
+      <c r="G933" s="44"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="G934" s="43"/>
+      <c r="G934" s="44"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="G935" s="43"/>
+      <c r="G935" s="44"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="G936" s="43"/>
+      <c r="G936" s="44"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="G937" s="43"/>
+      <c r="G937" s="44"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="G938" s="43"/>
+      <c r="G938" s="44"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="G939" s="43"/>
+      <c r="G939" s="44"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="G940" s="43"/>
+      <c r="G940" s="44"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="G941" s="43"/>
+      <c r="G941" s="44"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="G942" s="43"/>
+      <c r="G942" s="44"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="G943" s="43"/>
+      <c r="G943" s="44"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="G944" s="43"/>
+      <c r="G944" s="44"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="G945" s="43"/>
+      <c r="G945" s="44"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="G946" s="43"/>
+      <c r="G946" s="44"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="G947" s="43"/>
+      <c r="G947" s="44"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="G948" s="43"/>
+      <c r="G948" s="44"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="G949" s="43"/>
+      <c r="G949" s="44"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="G950" s="43"/>
+      <c r="G950" s="44"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="G951" s="43"/>
+      <c r="G951" s="44"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="G952" s="43"/>
+      <c r="G952" s="44"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="G953" s="43"/>
+      <c r="G953" s="44"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="G954" s="43"/>
+      <c r="G954" s="44"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="G955" s="43"/>
+      <c r="G955" s="44"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="G956" s="43"/>
+      <c r="G956" s="44"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="G957" s="43"/>
+      <c r="G957" s="44"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="G958" s="43"/>
+      <c r="G958" s="44"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="G959" s="43"/>
+      <c r="G959" s="44"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="G960" s="43"/>
+      <c r="G960" s="44"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="G961" s="43"/>
+      <c r="G961" s="44"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="G962" s="43"/>
+      <c r="G962" s="44"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="G963" s="43"/>
+      <c r="G963" s="44"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="G964" s="43"/>
+      <c r="G964" s="44"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="G965" s="43"/>
+      <c r="G965" s="44"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="G966" s="43"/>
+      <c r="G966" s="44"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="G967" s="43"/>
+      <c r="G967" s="44"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="G968" s="43"/>
+      <c r="G968" s="44"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="G969" s="43"/>
+      <c r="G969" s="44"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="G970" s="43"/>
+      <c r="G970" s="44"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="G971" s="43"/>
+      <c r="G971" s="44"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="G972" s="43"/>
+      <c r="G972" s="44"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="G973" s="43"/>
+      <c r="G973" s="44"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="G974" s="43"/>
+      <c r="G974" s="44"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="G975" s="43"/>
+      <c r="G975" s="44"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="G976" s="43"/>
+      <c r="G976" s="44"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="G977" s="43"/>
+      <c r="G977" s="44"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="G978" s="43"/>
+      <c r="G978" s="44"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="G979" s="43"/>
+      <c r="G979" s="44"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="G980" s="43"/>
+      <c r="G980" s="44"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="G981" s="43"/>
+      <c r="G981" s="44"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="G982" s="43"/>
+      <c r="G982" s="44"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="G983" s="43"/>
+      <c r="G983" s="44"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="G984" s="43"/>
+      <c r="G984" s="44"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="G985" s="43"/>
+      <c r="G985" s="44"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="G986" s="43"/>
+      <c r="G986" s="44"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="G987" s="43"/>
+      <c r="G987" s="44"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="G988" s="43"/>
+      <c r="G988" s="44"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="G989" s="43"/>
+      <c r="G989" s="44"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="G990" s="43"/>
+      <c r="G990" s="44"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="G991" s="43"/>
+      <c r="G991" s="44"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="G992" s="43"/>
+      <c r="G992" s="44"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="G993" s="43"/>
+      <c r="G993" s="44"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="G994" s="43"/>
+      <c r="G994" s="44"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="G995" s="43"/>
+      <c r="G995" s="44"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="G996" s="43"/>
+      <c r="G996" s="44"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="G997" s="43"/>
+      <c r="G997" s="44"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="G998" s="43"/>
+      <c r="G998" s="44"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="G999" s="43"/>
+      <c r="G999" s="44"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="G1000" s="43"/>
+      <c r="G1000" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$6:$AA$78">

--- a/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1671,8 +1671,12 @@
       <c r="Q7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1737,8 +1741,12 @@
       <c r="Q8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="38"/>
       <c r="U8" s="38"/>
       <c r="V8" s="38"/>
@@ -1764,11 +1772,11 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
@@ -1803,8 +1811,12 @@
       <c r="Q9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
+      <c r="R9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="38"/>
       <c r="U9" s="38"/>
       <c r="V9" s="38"/>
@@ -1834,7 +1846,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1869,8 +1881,12 @@
       <c r="Q10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+      <c r="R10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T10" s="38"/>
       <c r="U10" s="38"/>
       <c r="V10" s="38"/>
@@ -1900,7 +1916,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1935,8 +1951,12 @@
       <c r="Q11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="R11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T11" s="38"/>
       <c r="U11" s="38"/>
       <c r="V11" s="38"/>
@@ -1962,11 +1982,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -2001,8 +2021,12 @@
       <c r="Q12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="R12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
@@ -2032,7 +2056,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2067,8 +2091,12 @@
       <c r="Q13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="R13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T13" s="38"/>
       <c r="U13" s="38"/>
       <c r="V13" s="38"/>
@@ -2098,7 +2126,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>20</v>
@@ -2133,8 +2161,12 @@
       <c r="Q14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T14" s="38"/>
       <c r="U14" s="38"/>
       <c r="V14" s="38"/>
@@ -2164,7 +2196,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2199,8 +2231,12 @@
       <c r="Q15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="R15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="38"/>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
@@ -2226,11 +2262,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>23</v>
@@ -2265,8 +2301,12 @@
       <c r="Q16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="R16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T16" s="38"/>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
@@ -2292,11 +2332,11 @@
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>20</v>
@@ -2331,8 +2371,12 @@
       <c r="Q17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+      <c r="R17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
       <c r="V17" s="38"/>
@@ -2358,11 +2402,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2397,8 +2441,12 @@
       <c r="Q18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
+      <c r="R18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T18" s="38"/>
       <c r="U18" s="38"/>
       <c r="V18" s="38"/>
@@ -2428,7 +2476,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2463,8 +2511,12 @@
       <c r="Q19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
+      <c r="R19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
       <c r="V19" s="38"/>
@@ -2494,7 +2546,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2529,8 +2581,12 @@
       <c r="Q20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="R20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T20" s="38"/>
       <c r="U20" s="38"/>
       <c r="V20" s="38"/>
@@ -2560,7 +2616,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2595,8 +2651,12 @@
       <c r="Q21" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="R21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T21" s="38"/>
       <c r="U21" s="38"/>
       <c r="V21" s="38"/>
@@ -2622,11 +2682,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2661,8 +2721,12 @@
       <c r="Q22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
+      <c r="R22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
@@ -2688,11 +2752,11 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>23</v>
@@ -2727,8 +2791,12 @@
       <c r="Q23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
+      <c r="R23" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
@@ -2754,11 +2822,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2793,8 +2861,12 @@
       <c r="Q24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="R24" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
@@ -2820,11 +2892,11 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2859,8 +2931,12 @@
       <c r="Q25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
+      <c r="R25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T25" s="38"/>
       <c r="U25" s="38"/>
       <c r="V25" s="38"/>
@@ -2890,7 +2966,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>23</v>
@@ -2925,8 +3001,12 @@
       <c r="Q26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
+      <c r="R26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T26" s="38"/>
       <c r="U26" s="38"/>
       <c r="V26" s="38"/>
@@ -2952,11 +3032,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -2991,8 +3071,12 @@
       <c r="Q27" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
+      <c r="R27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T27" s="38"/>
       <c r="U27" s="38"/>
       <c r="V27" s="38"/>
@@ -3022,7 +3106,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>20</v>
@@ -3057,8 +3141,12 @@
       <c r="Q28" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="R28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T28" s="38"/>
       <c r="U28" s="38"/>
       <c r="V28" s="38"/>
@@ -3088,7 +3176,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>20</v>
@@ -3123,8 +3211,12 @@
       <c r="Q29" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
+      <c r="R29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T29" s="38"/>
       <c r="U29" s="38"/>
       <c r="V29" s="38"/>
@@ -3154,7 +3246,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
@@ -3189,8 +3281,12 @@
       <c r="Q30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
+      <c r="R30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T30" s="38"/>
       <c r="U30" s="38"/>
       <c r="V30" s="38"/>
@@ -3216,11 +3312,11 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3255,8 +3351,12 @@
       <c r="Q31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
+      <c r="R31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T31" s="38"/>
       <c r="U31" s="38"/>
       <c r="V31" s="38"/>
@@ -3282,11 +3382,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3321,8 +3421,12 @@
       <c r="Q32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="R32" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T32" s="38"/>
       <c r="U32" s="38"/>
       <c r="V32" s="38"/>
@@ -3352,7 +3456,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>20</v>
@@ -3387,8 +3491,12 @@
       <c r="Q33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
+      <c r="R33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T33" s="38"/>
       <c r="U33" s="38"/>
       <c r="V33" s="38"/>
@@ -3418,7 +3526,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3453,8 +3561,12 @@
       <c r="Q34" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
+      <c r="R34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T34" s="38"/>
       <c r="U34" s="38"/>
       <c r="V34" s="38"/>
@@ -3480,11 +3592,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>23</v>
@@ -3519,8 +3631,12 @@
       <c r="Q35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
+      <c r="R35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T35" s="38"/>
       <c r="U35" s="38"/>
       <c r="V35" s="38"/>
@@ -3546,11 +3662,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3585,8 +3701,12 @@
       <c r="Q36" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
+      <c r="R36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T36" s="38"/>
       <c r="U36" s="38"/>
       <c r="V36" s="38"/>
@@ -3612,11 +3732,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3651,8 +3771,12 @@
       <c r="Q37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
+      <c r="R37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T37" s="38"/>
       <c r="U37" s="38"/>
       <c r="V37" s="38"/>
@@ -3682,7 +3806,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>20</v>
@@ -3717,8 +3841,12 @@
       <c r="Q38" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
+      <c r="R38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T38" s="38"/>
       <c r="U38" s="38"/>
       <c r="V38" s="38"/>
@@ -3744,11 +3872,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -3783,8 +3911,12 @@
       <c r="Q39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
+      <c r="R39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T39" s="38"/>
       <c r="U39" s="38"/>
       <c r="V39" s="38"/>
@@ -3814,7 +3946,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>20</v>
@@ -3849,8 +3981,12 @@
       <c r="Q40" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
+      <c r="R40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T40" s="38"/>
       <c r="U40" s="38"/>
       <c r="V40" s="38"/>
@@ -3880,7 +4016,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -3915,8 +4051,12 @@
       <c r="Q41" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
+      <c r="R41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T41" s="38"/>
       <c r="U41" s="38"/>
       <c r="V41" s="38"/>
@@ -3942,11 +4082,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -3981,8 +4121,12 @@
       <c r="Q42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
+      <c r="R42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T42" s="38"/>
       <c r="U42" s="38"/>
       <c r="V42" s="38"/>
@@ -4012,7 +4156,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4047,8 +4191,12 @@
       <c r="Q43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
+      <c r="R43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T43" s="38"/>
       <c r="U43" s="38"/>
       <c r="V43" s="38"/>
@@ -4078,7 +4226,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -4113,8 +4261,12 @@
       <c r="Q44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
+      <c r="R44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T44" s="38"/>
       <c r="U44" s="38"/>
       <c r="V44" s="38"/>
@@ -4144,7 +4296,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>20</v>
@@ -4179,8 +4331,12 @@
       <c r="Q45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
+      <c r="R45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T45" s="38"/>
       <c r="U45" s="38"/>
       <c r="V45" s="38"/>
@@ -4206,11 +4362,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4245,8 +4401,12 @@
       <c r="Q46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
+      <c r="R46" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T46" s="38"/>
       <c r="U46" s="38"/>
       <c r="V46" s="38"/>
@@ -4276,7 +4436,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4311,8 +4471,12 @@
       <c r="Q47" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
+      <c r="R47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T47" s="38"/>
       <c r="U47" s="38"/>
       <c r="V47" s="38"/>
@@ -4342,7 +4506,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4377,8 +4541,12 @@
       <c r="Q48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
+      <c r="R48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T48" s="38"/>
       <c r="U48" s="38"/>
       <c r="V48" s="38"/>
@@ -4404,7 +4572,7 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
@@ -4443,8 +4611,12 @@
       <c r="Q49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
+      <c r="R49" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T49" s="38"/>
       <c r="U49" s="38"/>
       <c r="V49" s="38"/>
@@ -4470,11 +4642,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>23</v>
@@ -4509,8 +4681,12 @@
       <c r="Q50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
+      <c r="R50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T50" s="38"/>
       <c r="U50" s="38"/>
       <c r="V50" s="38"/>
@@ -4540,7 +4716,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -4575,8 +4751,12 @@
       <c r="Q51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
+      <c r="R51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T51" s="38"/>
       <c r="U51" s="38"/>
       <c r="V51" s="38"/>
@@ -4606,7 +4786,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -4641,8 +4821,12 @@
       <c r="Q52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
+      <c r="R52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T52" s="38"/>
       <c r="U52" s="38"/>
       <c r="V52" s="38"/>
@@ -4668,11 +4852,11 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -4707,8 +4891,12 @@
       <c r="Q53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
+      <c r="R53" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T53" s="38"/>
       <c r="U53" s="38"/>
       <c r="V53" s="38"/>
@@ -4738,7 +4926,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -4773,8 +4961,12 @@
       <c r="Q54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
+      <c r="R54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T54" s="38"/>
       <c r="U54" s="38"/>
       <c r="V54" s="38"/>
@@ -4804,7 +4996,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -4839,8 +5031,12 @@
       <c r="Q55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
+      <c r="R55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T55" s="38"/>
       <c r="U55" s="38"/>
       <c r="V55" s="38"/>
@@ -4870,7 +5066,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -4905,8 +5101,12 @@
       <c r="Q56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
+      <c r="R56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T56" s="38"/>
       <c r="U56" s="38"/>
       <c r="V56" s="38"/>
@@ -4932,11 +5132,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -4971,8 +5171,12 @@
       <c r="Q57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
+      <c r="R57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T57" s="38"/>
       <c r="U57" s="38"/>
       <c r="V57" s="38"/>
@@ -4998,11 +5202,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5037,8 +5241,12 @@
       <c r="Q58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
+      <c r="R58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T58" s="38"/>
       <c r="U58" s="38"/>
       <c r="V58" s="38"/>
@@ -5068,7 +5276,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5103,8 +5311,12 @@
       <c r="Q59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
+      <c r="R59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T59" s="38"/>
       <c r="U59" s="38"/>
       <c r="V59" s="38"/>
@@ -5130,11 +5342,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -5169,8 +5381,12 @@
       <c r="Q60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
+      <c r="R60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T60" s="38"/>
       <c r="U60" s="38"/>
       <c r="V60" s="38"/>
@@ -5200,7 +5416,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -5235,8 +5451,12 @@
       <c r="Q61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
+      <c r="R61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T61" s="38"/>
       <c r="U61" s="38"/>
       <c r="V61" s="38"/>
@@ -5266,7 +5486,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5301,8 +5521,12 @@
       <c r="Q62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
+      <c r="R62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T62" s="38"/>
       <c r="U62" s="38"/>
       <c r="V62" s="38"/>
@@ -5332,7 +5556,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -5367,8 +5591,12 @@
       <c r="Q63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
+      <c r="R63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T63" s="38"/>
       <c r="U63" s="38"/>
       <c r="V63" s="38"/>
@@ -5398,7 +5626,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -5433,8 +5661,12 @@
       <c r="Q64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
+      <c r="R64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T64" s="38"/>
       <c r="U64" s="38"/>
       <c r="V64" s="38"/>
@@ -5464,7 +5696,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -5499,8 +5731,12 @@
       <c r="Q65" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
+      <c r="R65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T65" s="38"/>
       <c r="U65" s="38"/>
       <c r="V65" s="38"/>
@@ -5530,7 +5766,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -5565,8 +5801,12 @@
       <c r="Q66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
+      <c r="R66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T66" s="38"/>
       <c r="U66" s="38"/>
       <c r="V66" s="38"/>
@@ -5592,7 +5832,7 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -5631,8 +5871,12 @@
       <c r="Q67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
+      <c r="R67" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S67" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T67" s="38"/>
       <c r="U67" s="38"/>
       <c r="V67" s="38"/>
@@ -5662,7 +5906,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -5697,8 +5941,12 @@
       <c r="Q68" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
+      <c r="R68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T68" s="38"/>
       <c r="U68" s="38"/>
       <c r="V68" s="38"/>
@@ -5724,11 +5972,11 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -5763,8 +6011,12 @@
       <c r="Q69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
+      <c r="R69" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T69" s="38"/>
       <c r="U69" s="38"/>
       <c r="V69" s="38"/>
@@ -5794,7 +6046,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -5829,8 +6081,12 @@
       <c r="Q70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
+      <c r="R70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T70" s="38"/>
       <c r="U70" s="38"/>
       <c r="V70" s="38"/>
@@ -5856,11 +6112,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -5895,8 +6151,12 @@
       <c r="Q71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
+      <c r="R71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T71" s="38"/>
       <c r="U71" s="38"/>
       <c r="V71" s="38"/>
@@ -5926,7 +6186,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>23</v>
@@ -5961,8 +6221,12 @@
       <c r="Q72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
+      <c r="R72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T72" s="38"/>
       <c r="U72" s="38"/>
       <c r="V72" s="38"/>
@@ -5992,7 +6256,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -6027,8 +6291,12 @@
       <c r="Q73" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
+      <c r="R73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T73" s="38"/>
       <c r="U73" s="38"/>
       <c r="V73" s="38"/>
@@ -6058,7 +6326,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -6093,8 +6361,12 @@
       <c r="Q74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
+      <c r="R74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T74" s="38"/>
       <c r="U74" s="38"/>
       <c r="V74" s="38"/>
@@ -6120,11 +6392,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>23</v>
@@ -6159,8 +6431,12 @@
       <c r="Q75" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
+      <c r="R75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="T75" s="38"/>
       <c r="U75" s="38"/>
       <c r="V75" s="38"/>
@@ -6190,7 +6466,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>20</v>
@@ -6225,8 +6501,12 @@
       <c r="Q76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
+      <c r="R76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T76" s="38"/>
       <c r="U76" s="38"/>
       <c r="V76" s="38"/>
@@ -6256,7 +6536,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G77" s="29" t="s">
         <v>20</v>
@@ -6291,8 +6571,12 @@
       <c r="Q77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
+      <c r="R77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T77" s="38"/>
       <c r="U77" s="38"/>
       <c r="V77" s="38"/>
@@ -6318,11 +6602,11 @@
       </c>
       <c r="E78" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>20</v>
@@ -6357,8 +6641,12 @@
       <c r="Q78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
+      <c r="R78" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="T78" s="38"/>
       <c r="U78" s="38"/>
       <c r="V78" s="38"/>

--- a/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1677,8 +1677,12 @@
       <c r="S7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
+      <c r="T7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
@@ -1706,7 +1710,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1747,8 +1751,12 @@
       <c r="S8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
+      <c r="T8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V8" s="38"/>
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
@@ -1776,7 +1784,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
@@ -1817,8 +1825,12 @@
       <c r="S9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
+      <c r="T9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V9" s="38"/>
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
@@ -1846,7 +1858,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1887,8 +1899,12 @@
       <c r="S10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
+      <c r="T10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V10" s="38"/>
       <c r="W10" s="38"/>
       <c r="X10" s="38"/>
@@ -1916,7 +1932,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>20</v>
@@ -1957,8 +1973,12 @@
       <c r="S11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
+      <c r="T11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V11" s="38"/>
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
@@ -1982,11 +2002,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -2027,8 +2047,12 @@
       <c r="S12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
+      <c r="T12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V12" s="38"/>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
@@ -2056,7 +2080,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2097,8 +2121,12 @@
       <c r="S13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
+      <c r="T13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V13" s="38"/>
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
@@ -2126,7 +2154,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>20</v>
@@ -2167,8 +2195,12 @@
       <c r="S14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
+      <c r="T14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V14" s="38"/>
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
@@ -2196,7 +2228,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2237,8 +2269,12 @@
       <c r="S15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
+      <c r="T15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V15" s="38"/>
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
@@ -2266,7 +2302,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>23</v>
@@ -2307,8 +2343,12 @@
       <c r="S16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
+      <c r="T16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V16" s="38"/>
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
@@ -2336,7 +2376,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>20</v>
@@ -2377,8 +2417,12 @@
       <c r="S17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
+      <c r="T17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V17" s="38"/>
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
@@ -2406,7 +2450,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2447,8 +2491,12 @@
       <c r="S18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
+      <c r="T18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V18" s="38"/>
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
@@ -2472,11 +2520,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2517,8 +2565,12 @@
       <c r="S19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
+      <c r="T19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V19" s="38"/>
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
@@ -2546,7 +2598,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2587,8 +2639,12 @@
       <c r="S20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
+      <c r="T20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V20" s="38"/>
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
@@ -2616,7 +2672,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2657,8 +2713,12 @@
       <c r="S21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
+      <c r="T21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V21" s="38"/>
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
@@ -2686,7 +2746,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2727,8 +2787,12 @@
       <c r="S22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
+      <c r="T22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V22" s="38"/>
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
@@ -2752,11 +2816,11 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>23</v>
@@ -2797,8 +2861,12 @@
       <c r="S23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
+      <c r="T23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
@@ -2826,7 +2894,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2867,8 +2935,12 @@
       <c r="S24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
+      <c r="T24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
@@ -2896,7 +2968,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2937,8 +3009,12 @@
       <c r="S25" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
+      <c r="T25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="38"/>
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
@@ -2966,7 +3042,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>23</v>
@@ -3007,8 +3083,12 @@
       <c r="S26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
+      <c r="T26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V26" s="38"/>
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
@@ -3036,7 +3116,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -3077,8 +3157,12 @@
       <c r="S27" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
+      <c r="T27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V27" s="38"/>
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
@@ -3106,7 +3190,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>20</v>
@@ -3147,8 +3231,12 @@
       <c r="S28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
+      <c r="T28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V28" s="38"/>
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
@@ -3172,7 +3260,7 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
@@ -3217,8 +3305,12 @@
       <c r="S29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
+      <c r="T29" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U29" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V29" s="38"/>
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
@@ -3242,11 +3334,11 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
@@ -3287,8 +3379,12 @@
       <c r="S30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
+      <c r="T30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V30" s="38"/>
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
@@ -3316,7 +3412,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3357,8 +3453,12 @@
       <c r="S31" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
+      <c r="T31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V31" s="38"/>
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
@@ -3386,7 +3486,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3427,8 +3527,12 @@
       <c r="S32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
+      <c r="T32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V32" s="38"/>
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
@@ -3456,7 +3560,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>20</v>
@@ -3497,8 +3601,12 @@
       <c r="S33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
+      <c r="T33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V33" s="38"/>
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
@@ -3526,7 +3634,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3567,8 +3675,12 @@
       <c r="S34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
+      <c r="T34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V34" s="38"/>
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
@@ -3596,7 +3708,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>23</v>
@@ -3637,8 +3749,12 @@
       <c r="S35" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
+      <c r="T35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V35" s="38"/>
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
@@ -3666,7 +3782,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3707,8 +3823,12 @@
       <c r="S36" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
+      <c r="T36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V36" s="38"/>
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
@@ -3736,7 +3856,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3777,8 +3897,12 @@
       <c r="S37" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
+      <c r="T37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V37" s="38"/>
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
@@ -3806,7 +3930,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>20</v>
@@ -3847,8 +3971,12 @@
       <c r="S38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
+      <c r="T38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V38" s="38"/>
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
@@ -3872,11 +4000,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -3917,8 +4045,12 @@
       <c r="S39" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
+      <c r="T39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V39" s="38"/>
       <c r="W39" s="38"/>
       <c r="X39" s="38"/>
@@ -3942,11 +4074,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>20</v>
@@ -3987,8 +4119,12 @@
       <c r="S40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
+      <c r="T40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
@@ -4012,11 +4148,11 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -4057,8 +4193,12 @@
       <c r="S41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
+      <c r="T41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V41" s="38"/>
       <c r="W41" s="38"/>
       <c r="X41" s="38"/>
@@ -4086,7 +4226,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -4127,8 +4267,12 @@
       <c r="S42" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
+      <c r="T42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V42" s="38"/>
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
@@ -4152,7 +4296,7 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -4197,8 +4341,12 @@
       <c r="S43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
+      <c r="T43" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U43" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V43" s="38"/>
       <c r="W43" s="38"/>
       <c r="X43" s="38"/>
@@ -4226,7 +4374,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -4267,8 +4415,12 @@
       <c r="S44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
+      <c r="T44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V44" s="38"/>
       <c r="W44" s="38"/>
       <c r="X44" s="38"/>
@@ -4296,7 +4448,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>20</v>
@@ -4337,8 +4489,12 @@
       <c r="S45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
+      <c r="T45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V45" s="38"/>
       <c r="W45" s="38"/>
       <c r="X45" s="38"/>
@@ -4366,7 +4522,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4407,8 +4563,12 @@
       <c r="S46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
+      <c r="T46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V46" s="38"/>
       <c r="W46" s="38"/>
       <c r="X46" s="38"/>
@@ -4432,11 +4592,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4477,8 +4637,12 @@
       <c r="S47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
+      <c r="T47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V47" s="38"/>
       <c r="W47" s="38"/>
       <c r="X47" s="38"/>
@@ -4506,7 +4670,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4547,8 +4711,12 @@
       <c r="S48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
+      <c r="T48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
       <c r="X48" s="38"/>
@@ -4576,7 +4744,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4617,8 +4785,12 @@
       <c r="S49" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
+      <c r="T49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V49" s="38"/>
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
@@ -4646,7 +4818,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>23</v>
@@ -4687,8 +4859,12 @@
       <c r="S50" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
+      <c r="T50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V50" s="38"/>
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
@@ -4716,7 +4892,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -4757,8 +4933,12 @@
       <c r="S51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
+      <c r="T51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V51" s="38"/>
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
@@ -4782,11 +4962,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -4827,8 +5007,12 @@
       <c r="S52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
+      <c r="T52" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V52" s="38"/>
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
@@ -4856,7 +5040,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -4897,8 +5081,12 @@
       <c r="S53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
+      <c r="T53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V53" s="38"/>
       <c r="W53" s="38"/>
       <c r="X53" s="38"/>
@@ -4926,7 +5114,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -4967,8 +5155,12 @@
       <c r="S54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
+      <c r="T54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V54" s="38"/>
       <c r="W54" s="38"/>
       <c r="X54" s="38"/>
@@ -4996,7 +5188,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -5037,8 +5229,12 @@
       <c r="S55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
+      <c r="T55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V55" s="38"/>
       <c r="W55" s="38"/>
       <c r="X55" s="38"/>
@@ -5066,7 +5262,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -5107,8 +5303,12 @@
       <c r="S56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
+      <c r="T56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V56" s="38"/>
       <c r="W56" s="38"/>
       <c r="X56" s="38"/>
@@ -5136,7 +5336,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -5177,8 +5377,12 @@
       <c r="S57" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
+      <c r="T57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V57" s="38"/>
       <c r="W57" s="38"/>
       <c r="X57" s="38"/>
@@ -5206,7 +5410,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5247,8 +5451,12 @@
       <c r="S58" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
+      <c r="T58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V58" s="38"/>
       <c r="W58" s="38"/>
       <c r="X58" s="38"/>
@@ -5272,11 +5480,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5317,8 +5525,12 @@
       <c r="S59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
+      <c r="T59" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V59" s="38"/>
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
@@ -5346,7 +5558,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -5387,8 +5599,12 @@
       <c r="S60" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
+      <c r="T60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V60" s="38"/>
       <c r="W60" s="38"/>
       <c r="X60" s="38"/>
@@ -5412,7 +5628,7 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
@@ -5457,8 +5673,12 @@
       <c r="S61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
+      <c r="T61" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U61" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V61" s="38"/>
       <c r="W61" s="38"/>
       <c r="X61" s="38"/>
@@ -5486,7 +5706,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5527,8 +5747,12 @@
       <c r="S62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
+      <c r="T62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V62" s="38"/>
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
@@ -5556,7 +5780,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -5597,8 +5821,12 @@
       <c r="S63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
+      <c r="T63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V63" s="38"/>
       <c r="W63" s="38"/>
       <c r="X63" s="38"/>
@@ -5626,7 +5854,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -5667,8 +5895,12 @@
       <c r="S64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
+      <c r="T64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V64" s="38"/>
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
@@ -5696,7 +5928,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -5737,8 +5969,12 @@
       <c r="S65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
+      <c r="T65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V65" s="38"/>
       <c r="W65" s="38"/>
       <c r="X65" s="38"/>
@@ -5766,7 +6002,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -5807,8 +6043,12 @@
       <c r="S66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
+      <c r="T66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V66" s="38"/>
       <c r="W66" s="38"/>
       <c r="X66" s="38"/>
@@ -5832,11 +6072,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -5877,8 +6117,12 @@
       <c r="S67" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
+      <c r="T67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V67" s="38"/>
       <c r="W67" s="38"/>
       <c r="X67" s="38"/>
@@ -5902,7 +6146,7 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
@@ -5947,8 +6191,12 @@
       <c r="S68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
+      <c r="T68" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U68" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V68" s="38"/>
       <c r="W68" s="38"/>
       <c r="X68" s="38"/>
@@ -5972,7 +6220,7 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
@@ -6017,8 +6265,12 @@
       <c r="S69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
+      <c r="T69" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U69" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V69" s="38"/>
       <c r="W69" s="38"/>
       <c r="X69" s="38"/>
@@ -6046,7 +6298,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -6087,8 +6339,12 @@
       <c r="S70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
+      <c r="T70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V70" s="38"/>
       <c r="W70" s="38"/>
       <c r="X70" s="38"/>
@@ -6116,7 +6372,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -6157,8 +6413,12 @@
       <c r="S71" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
+      <c r="T71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V71" s="38"/>
       <c r="W71" s="38"/>
       <c r="X71" s="38"/>
@@ -6182,11 +6442,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>23</v>
@@ -6227,8 +6487,12 @@
       <c r="S72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
+      <c r="T72" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V72" s="38"/>
       <c r="W72" s="38"/>
       <c r="X72" s="38"/>
@@ -6252,11 +6516,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -6297,8 +6561,12 @@
       <c r="S73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
+      <c r="T73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V73" s="38"/>
       <c r="W73" s="38"/>
       <c r="X73" s="38"/>
@@ -6326,7 +6594,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -6367,8 +6635,12 @@
       <c r="S74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
+      <c r="T74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V74" s="38"/>
       <c r="W74" s="38"/>
       <c r="X74" s="38"/>
@@ -6396,7 +6668,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>23</v>
@@ -6437,8 +6709,12 @@
       <c r="S75" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
+      <c r="T75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V75" s="38"/>
       <c r="W75" s="38"/>
       <c r="X75" s="38"/>
@@ -6462,7 +6738,7 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
@@ -6507,8 +6783,12 @@
       <c r="S76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
+      <c r="T76" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U76" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V76" s="38"/>
       <c r="W76" s="38"/>
       <c r="X76" s="38"/>
@@ -6536,7 +6816,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G77" s="29" t="s">
         <v>20</v>
@@ -6577,8 +6857,12 @@
       <c r="S77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
+      <c r="T77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V77" s="38"/>
       <c r="W77" s="38"/>
       <c r="X77" s="38"/>
@@ -6602,7 +6886,7 @@
       </c>
       <c r="E78" s="40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
@@ -6647,8 +6931,12 @@
       <c r="S78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
+      <c r="T78" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U78" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="V78" s="38"/>
       <c r="W78" s="38"/>
       <c r="X78" s="38"/>

--- a/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -83,13 +83,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP065</t>
   </si>
   <si>
     <t>Ankit Kumar Meena</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2021IPM018</t>
@@ -976,6 +976,9 @@
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="19" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -992,10 +995,7 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1632,11 +1632,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1683,23 +1683,27 @@
       <c r="U7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
+      <c r="V7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="31">
+      <c r="A8" s="32">
         <f t="shared" ref="A8:A95" si="3">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>9</v>
@@ -1708,17 +1712,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="29" t="s">
@@ -1730,8 +1734,8 @@
       <c r="L8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="37" t="s">
-        <v>23</v>
+      <c r="M8" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N8" s="29" t="s">
         <v>20</v>
@@ -1742,8 +1746,8 @@
       <c r="P8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="37" t="s">
-        <v>23</v>
+      <c r="Q8" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>20</v>
@@ -1757,22 +1761,26 @@
       <c r="U8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
+      <c r="V8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X8" s="38"/>
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
       <c r="AA8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="31">
+      <c r="A9" s="32">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -1782,24 +1790,24 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>23</v>
+      <c r="H9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="37" t="s">
-        <v>23</v>
+      <c r="K9" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>20</v>
@@ -1807,11 +1815,11 @@
       <c r="M9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>23</v>
+      <c r="N9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P9" s="29" t="s">
         <v>20</v>
@@ -1819,8 +1827,8 @@
       <c r="Q9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="37" t="s">
-        <v>23</v>
+      <c r="R9" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S9" s="29" t="s">
         <v>20</v>
@@ -1831,22 +1839,26 @@
       <c r="U9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
+      <c r="V9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="31">
+      <c r="A10" s="32">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="26" t="s">
@@ -1856,15 +1868,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>23</v>
+      <c r="H10" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>20</v>
@@ -1905,22 +1917,26 @@
       <c r="U10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
+      <c r="V10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X10" s="38"/>
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="31">
+      <c r="A11" s="32">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -1928,13 +1944,13 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F11" s="34">
+        <v>4</v>
+      </c>
+      <c r="F11" s="35">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="29" t="s">
@@ -1955,11 +1971,11 @@
       <c r="M11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>23</v>
+      <c r="N11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P11" s="29" t="s">
         <v>20</v>
@@ -1979,22 +1995,26 @@
       <c r="U11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
+      <c r="V11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="31">
+      <c r="A12" s="32">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="26" t="s">
@@ -2004,17 +2024,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="35" t="s">
+      <c r="H12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="29" t="s">
@@ -2029,11 +2049,11 @@
       <c r="M12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>23</v>
+      <c r="N12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P12" s="29" t="s">
         <v>20</v>
@@ -2041,8 +2061,8 @@
       <c r="Q12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="37" t="s">
-        <v>23</v>
+      <c r="R12" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S12" s="29" t="s">
         <v>20</v>
@@ -2050,25 +2070,29 @@
       <c r="T12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
+      <c r="U12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="31">
+      <c r="A13" s="32">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="26" t="s">
@@ -2078,9 +2102,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2109,11 +2133,11 @@
       <c r="O13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>23</v>
+      <c r="P13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>20</v>
@@ -2127,22 +2151,26 @@
       <c r="U13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
+      <c r="V13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="31">
+      <c r="A14" s="32">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="26" t="s">
@@ -2150,11 +2178,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F14" s="34">
+        <v>3</v>
+      </c>
+      <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>20</v>
@@ -2162,7 +2190,7 @@
       <c r="H14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="29" t="s">
@@ -2174,8 +2202,8 @@
       <c r="L14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="37" t="s">
-        <v>23</v>
+      <c r="M14" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N14" s="29" t="s">
         <v>20</v>
@@ -2183,8 +2211,8 @@
       <c r="O14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="37" t="s">
-        <v>23</v>
+      <c r="P14" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="Q14" s="29" t="s">
         <v>20</v>
@@ -2201,22 +2229,26 @@
       <c r="U14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
+      <c r="V14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="31">
+      <c r="A15" s="32">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="26" t="s">
@@ -2226,9 +2258,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2236,11 +2268,11 @@
       <c r="H15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>23</v>
+      <c r="I15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>20</v>
@@ -2251,11 +2283,11 @@
       <c r="M15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>23</v>
+      <c r="N15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P15" s="29" t="s">
         <v>20</v>
@@ -2275,22 +2307,26 @@
       <c r="U15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
+      <c r="V15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31">
+      <c r="A16" s="32">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -2298,16 +2334,16 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F16" s="34">
+        <v>3</v>
+      </c>
+      <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -2340,8 +2376,8 @@
       <c r="R16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="37" t="s">
-        <v>23</v>
+      <c r="S16" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T16" s="29" t="s">
         <v>20</v>
@@ -2349,22 +2385,26 @@
       <c r="U16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
+      <c r="V16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="31">
+      <c r="A17" s="32">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -2374,18 +2414,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>23</v>
+      <c r="H17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>20</v>
@@ -2399,8 +2439,8 @@
       <c r="M17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="37" t="s">
-        <v>23</v>
+      <c r="N17" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="O17" s="29" t="s">
         <v>20</v>
@@ -2414,8 +2454,8 @@
       <c r="R17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="37" t="s">
-        <v>23</v>
+      <c r="S17" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T17" s="29" t="s">
         <v>20</v>
@@ -2423,22 +2463,26 @@
       <c r="U17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
+      <c r="V17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="31">
+      <c r="A18" s="32">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -2448,15 +2492,15 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="36" t="s">
-        <v>23</v>
+      <c r="H18" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="I18" s="29" t="s">
         <v>20</v>
@@ -2470,8 +2514,8 @@
       <c r="L18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="37" t="s">
-        <v>23</v>
+      <c r="M18" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N18" s="29" t="s">
         <v>20</v>
@@ -2488,8 +2532,8 @@
       <c r="R18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="37" t="s">
-        <v>23</v>
+      <c r="S18" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T18" s="29" t="s">
         <v>20</v>
@@ -2497,22 +2541,26 @@
       <c r="U18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
+      <c r="V18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="31">
+      <c r="A19" s="32">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -2522,9 +2570,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2541,11 +2589,11 @@
       <c r="K19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>23</v>
+      <c r="L19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N19" s="29" t="s">
         <v>20</v>
@@ -2556,8 +2604,8 @@
       <c r="P19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="37" t="s">
-        <v>23</v>
+      <c r="Q19" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>20</v>
@@ -2565,28 +2613,32 @@
       <c r="S19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="37" t="s">
-        <v>23</v>
+      <c r="T19" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="U19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
+      <c r="V19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="31">
+      <c r="A20" s="32">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="26" t="s">
@@ -2596,24 +2648,24 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>23</v>
+      <c r="H20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="L20" s="29" t="s">
         <v>20</v>
@@ -2645,22 +2697,26 @@
       <c r="U20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
+      <c r="V20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
       <c r="AA20" s="38"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="31">
+      <c r="A21" s="32">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="26" t="s">
@@ -2668,11 +2724,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2698,14 +2754,14 @@
       <c r="N21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="37" t="s">
-        <v>23</v>
+      <c r="O21" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="37" t="s">
-        <v>23</v>
+      <c r="Q21" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>20</v>
@@ -2719,22 +2775,26 @@
       <c r="U21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
+      <c r="V21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
       <c r="AA21" s="38"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31">
+      <c r="A22" s="32">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="26" t="s">
@@ -2742,11 +2802,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F22" s="34">
+        <v>3</v>
+      </c>
+      <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2778,14 +2838,14 @@
       <c r="P22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="37" t="s">
-        <v>23</v>
+      <c r="Q22" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="37" t="s">
-        <v>23</v>
+      <c r="S22" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T22" s="29" t="s">
         <v>20</v>
@@ -2793,22 +2853,26 @@
       <c r="U22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
+      <c r="V22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
       <c r="AA22" s="38"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="31">
+      <c r="A23" s="32">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
@@ -2818,17 +2882,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="H23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="29" t="s">
@@ -2840,8 +2904,8 @@
       <c r="L23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="37" t="s">
-        <v>23</v>
+      <c r="M23" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N23" s="29" t="s">
         <v>20</v>
@@ -2855,8 +2919,8 @@
       <c r="Q23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="37" t="s">
-        <v>23</v>
+      <c r="R23" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S23" s="29" t="s">
         <v>20</v>
@@ -2864,25 +2928,29 @@
       <c r="T23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U23" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
+      <c r="U23" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="38"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="31">
+      <c r="A24" s="32">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -2890,13 +2958,13 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="34">
+        <v>2</v>
+      </c>
+      <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="G24" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="29" t="s">
@@ -2929,8 +2997,8 @@
       <c r="Q24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="37" t="s">
-        <v>23</v>
+      <c r="R24" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S24" s="29" t="s">
         <v>20</v>
@@ -2941,22 +3009,26 @@
       <c r="U24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
+      <c r="V24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="38"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="31">
+      <c r="A25" s="32">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="34" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="26" t="s">
@@ -2964,23 +3036,23 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F25" s="34">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>23</v>
+      <c r="H25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>20</v>
@@ -2994,8 +3066,8 @@
       <c r="N25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="37" t="s">
-        <v>23</v>
+      <c r="O25" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P25" s="29" t="s">
         <v>20</v>
@@ -3006,8 +3078,8 @@
       <c r="R25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="37" t="s">
-        <v>23</v>
+      <c r="S25" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T25" s="29" t="s">
         <v>20</v>
@@ -3015,22 +3087,26 @@
       <c r="U25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
+      <c r="V25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="31">
+      <c r="A26" s="32">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="26" t="s">
@@ -3040,15 +3116,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="I26" s="29" t="s">
         <v>20</v>
@@ -3089,22 +3165,26 @@
       <c r="U26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
+      <c r="V26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="38"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="31">
+      <c r="A27" s="32">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -3112,11 +3192,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F27" s="34">
+        <v>3</v>
+      </c>
+      <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -3148,14 +3228,14 @@
       <c r="P27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="37" t="s">
-        <v>23</v>
+      <c r="Q27" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="37" t="s">
-        <v>23</v>
+      <c r="S27" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T27" s="29" t="s">
         <v>20</v>
@@ -3163,22 +3243,26 @@
       <c r="U27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
+      <c r="V27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
       <c r="AA27" s="38"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="31">
+      <c r="A28" s="32">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="34" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="26" t="s">
@@ -3188,21 +3272,21 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>23</v>
+      <c r="H28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>20</v>
@@ -3219,11 +3303,11 @@
       <c r="O28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="37" t="s">
-        <v>23</v>
+      <c r="P28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R28" s="29" t="s">
         <v>20</v>
@@ -3237,22 +3321,26 @@
       <c r="U28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
+      <c r="V28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>
       <c r="AA28" s="38"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="31">
+      <c r="A29" s="32">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="26" t="s">
@@ -3262,9 +3350,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>20</v>
@@ -3293,11 +3381,11 @@
       <c r="O29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" s="37" t="s">
-        <v>23</v>
+      <c r="P29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>20</v>
@@ -3305,28 +3393,32 @@
       <c r="S29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
+      <c r="T29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X29" s="38"/>
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
       <c r="AA29" s="38"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="31">
+      <c r="A30" s="32">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -3336,15 +3428,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="37" t="s">
-        <v>23</v>
+      <c r="H30" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>20</v>
@@ -3355,14 +3447,14 @@
       <c r="K30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="37" t="s">
-        <v>23</v>
+      <c r="L30" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="M30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="37" t="s">
-        <v>23</v>
+      <c r="N30" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="O30" s="29" t="s">
         <v>20</v>
@@ -3382,25 +3474,29 @@
       <c r="T30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U30" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
+      <c r="U30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
       <c r="AA30" s="38"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="31">
+      <c r="A31" s="32">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="26" t="s">
@@ -3408,17 +3504,17 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F31" s="34">
+        <v>3</v>
+      </c>
+      <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>20</v>
@@ -3450,8 +3546,8 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="37" t="s">
-        <v>23</v>
+      <c r="S31" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T31" s="29" t="s">
         <v>20</v>
@@ -3459,22 +3555,26 @@
       <c r="U31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
+      <c r="V31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
       <c r="Z31" s="38"/>
       <c r="AA31" s="38"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="31">
+      <c r="A32" s="32">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="26" t="s">
@@ -3484,9 +3584,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3494,8 +3594,8 @@
       <c r="H32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="37" t="s">
-        <v>23</v>
+      <c r="I32" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>20</v>
@@ -3512,8 +3612,8 @@
       <c r="N32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="37" t="s">
-        <v>23</v>
+      <c r="O32" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P32" s="29" t="s">
         <v>20</v>
@@ -3521,8 +3621,8 @@
       <c r="Q32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="37" t="s">
-        <v>23</v>
+      <c r="R32" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S32" s="29" t="s">
         <v>20</v>
@@ -3533,22 +3633,26 @@
       <c r="U32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
+      <c r="V32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
       <c r="Z32" s="38"/>
       <c r="AA32" s="38"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31">
+      <c r="A33" s="32">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="26" t="s">
@@ -3556,17 +3660,17 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F33" s="34">
+        <v>3</v>
+      </c>
+      <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="37" t="s">
-        <v>23</v>
+      <c r="H33" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="I33" s="29" t="s">
         <v>20</v>
@@ -3586,8 +3690,8 @@
       <c r="N33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="37" t="s">
-        <v>23</v>
+      <c r="O33" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P33" s="29" t="s">
         <v>20</v>
@@ -3607,22 +3711,26 @@
       <c r="U33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
+      <c r="V33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X33" s="38"/>
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
       <c r="AA33" s="38"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="31">
+      <c r="A34" s="32">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="34" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="26" t="s">
@@ -3632,14 +3740,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="29" t="s">
@@ -3654,8 +3762,8 @@
       <c r="L34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="37" t="s">
-        <v>23</v>
+      <c r="M34" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N34" s="29" t="s">
         <v>20</v>
@@ -3663,11 +3771,11 @@
       <c r="O34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="37" t="s">
-        <v>23</v>
+      <c r="P34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R34" s="29" t="s">
         <v>20</v>
@@ -3681,22 +3789,26 @@
       <c r="U34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
+      <c r="V34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X34" s="38"/>
       <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
       <c r="AA34" s="38"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="31">
+      <c r="A35" s="32">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="34" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -3706,18 +3818,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="37" t="s">
-        <v>23</v>
+      <c r="I35" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="J35" s="29" t="s">
         <v>20</v>
@@ -3734,8 +3846,8 @@
       <c r="N35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="37" t="s">
-        <v>23</v>
+      <c r="O35" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P35" s="29" t="s">
         <v>20</v>
@@ -3746,8 +3858,8 @@
       <c r="R35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="37" t="s">
-        <v>23</v>
+      <c r="S35" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T35" s="29" t="s">
         <v>20</v>
@@ -3755,22 +3867,26 @@
       <c r="U35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
+      <c r="V35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X35" s="38"/>
       <c r="Y35" s="38"/>
       <c r="Z35" s="38"/>
       <c r="AA35" s="38"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="31">
+      <c r="A36" s="32">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -3778,16 +3894,16 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F36" s="34">
+        <v>4</v>
+      </c>
+      <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="29" t="s">
@@ -3802,8 +3918,8 @@
       <c r="L36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="37" t="s">
-        <v>23</v>
+      <c r="M36" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N36" s="29" t="s">
         <v>20</v>
@@ -3814,14 +3930,14 @@
       <c r="P36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="37" t="s">
-        <v>23</v>
+      <c r="Q36" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="37" t="s">
-        <v>23</v>
+      <c r="S36" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T36" s="29" t="s">
         <v>20</v>
@@ -3829,22 +3945,26 @@
       <c r="U36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
+      <c r="V36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X36" s="38"/>
       <c r="Y36" s="38"/>
       <c r="Z36" s="38"/>
       <c r="AA36" s="38"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="31">
+      <c r="A37" s="32">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="26" t="s">
@@ -3852,11 +3972,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F37" s="34">
+        <v>3</v>
+      </c>
+      <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3882,8 +4002,8 @@
       <c r="N37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="37" t="s">
-        <v>23</v>
+      <c r="O37" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P37" s="39" t="s">
         <v>20</v>
@@ -3894,8 +4014,8 @@
       <c r="R37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="37" t="s">
-        <v>23</v>
+      <c r="S37" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T37" s="29" t="s">
         <v>20</v>
@@ -3903,22 +4023,26 @@
       <c r="U37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
+      <c r="V37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X37" s="38"/>
       <c r="Y37" s="38"/>
       <c r="Z37" s="38"/>
       <c r="AA37" s="38"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="31">
+      <c r="A38" s="32">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="26" t="s">
@@ -3928,14 +4052,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="29" t="s">
@@ -3944,8 +4068,8 @@
       <c r="J38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="37" t="s">
-        <v>23</v>
+      <c r="K38" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="L38" s="29" t="s">
         <v>20</v>
@@ -3956,14 +4080,14 @@
       <c r="N38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q38" s="37" t="s">
-        <v>23</v>
+      <c r="O38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R38" s="29" t="s">
         <v>20</v>
@@ -3977,22 +4101,26 @@
       <c r="U38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
+      <c r="V38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X38" s="38"/>
       <c r="Y38" s="38"/>
       <c r="Z38" s="38"/>
       <c r="AA38" s="38"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="31">
+      <c r="A39" s="32">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="34" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="26" t="s">
@@ -4000,16 +4128,16 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F39" s="34">
+        <v>3</v>
+      </c>
+      <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="29" t="s">
@@ -4042,31 +4170,35 @@
       <c r="R39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="37" t="s">
-        <v>23</v>
+      <c r="S39" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U39" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
+      <c r="U39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X39" s="38"/>
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
       <c r="AA39" s="38"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="31">
+      <c r="A40" s="32">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="34" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="26" t="s">
@@ -4076,9 +4208,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>20</v>
@@ -4086,7 +4218,7 @@
       <c r="H40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="35" t="s">
+      <c r="I40" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="29" t="s">
@@ -4095,11 +4227,11 @@
       <c r="K40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="37" t="s">
-        <v>23</v>
+      <c r="L40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N40" s="29" t="s">
         <v>20</v>
@@ -4110,8 +4242,8 @@
       <c r="P40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="37" t="s">
-        <v>23</v>
+      <c r="Q40" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R40" s="29" t="s">
         <v>20</v>
@@ -4122,25 +4254,29 @@
       <c r="T40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U40" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
+      <c r="U40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X40" s="38"/>
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
       <c r="AA40" s="38"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="31">
+      <c r="A41" s="32">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="34" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -4148,16 +4284,16 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F41" s="34">
+        <v>3</v>
+      </c>
+      <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I41" s="29" t="s">
@@ -4184,8 +4320,8 @@
       <c r="P41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="37" t="s">
-        <v>23</v>
+      <c r="Q41" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R41" s="29" t="s">
         <v>20</v>
@@ -4196,25 +4332,29 @@
       <c r="T41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U41" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
+      <c r="U41" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
       <c r="AA41" s="38"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="31">
+      <c r="A42" s="32">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="34" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="26" t="s">
@@ -4222,11 +4362,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F42" s="34">
+        <v>3</v>
+      </c>
+      <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -4249,8 +4389,8 @@
       <c r="M42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="37" t="s">
-        <v>23</v>
+      <c r="N42" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="O42" s="29" t="s">
         <v>20</v>
@@ -4264,8 +4404,8 @@
       <c r="R42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="37" t="s">
-        <v>23</v>
+      <c r="S42" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T42" s="29" t="s">
         <v>20</v>
@@ -4273,22 +4413,26 @@
       <c r="U42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
+      <c r="V42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X42" s="38"/>
       <c r="Y42" s="38"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="38"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="31">
+      <c r="A43" s="32">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -4298,24 +4442,24 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G43" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="35" t="s">
+      <c r="I43" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="37" t="s">
-        <v>23</v>
+      <c r="K43" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="L43" s="29" t="s">
         <v>20</v>
@@ -4341,28 +4485,32 @@
       <c r="S43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
+      <c r="T43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X43" s="38"/>
       <c r="Y43" s="38"/>
       <c r="Z43" s="38"/>
       <c r="AA43" s="38"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="31">
+      <c r="A44" s="32">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -4372,9 +4520,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -4421,22 +4569,26 @@
       <c r="U44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
+      <c r="V44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X44" s="38"/>
       <c r="Y44" s="38"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="38"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="31">
+      <c r="A45" s="32">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="34" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="26" t="s">
@@ -4446,9 +4598,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>20</v>
@@ -4495,22 +4647,26 @@
       <c r="U45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
+      <c r="V45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X45" s="38"/>
       <c r="Y45" s="38"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="38"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="31">
+      <c r="A46" s="32">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="34" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -4520,15 +4676,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="37" t="s">
-        <v>23</v>
+      <c r="H46" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="I46" s="29" t="s">
         <v>20</v>
@@ -4542,14 +4698,14 @@
       <c r="L46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="37" t="s">
-        <v>23</v>
+      <c r="M46" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="37" t="s">
-        <v>23</v>
+      <c r="O46" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P46" s="39" t="s">
         <v>20</v>
@@ -4557,8 +4713,8 @@
       <c r="Q46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="37" t="s">
-        <v>23</v>
+      <c r="R46" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S46" s="29" t="s">
         <v>20</v>
@@ -4569,22 +4725,26 @@
       <c r="U46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
+      <c r="V46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X46" s="38"/>
       <c r="Y46" s="38"/>
       <c r="Z46" s="38"/>
       <c r="AA46" s="38"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="31">
+      <c r="A47" s="32">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -4592,11 +4752,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F47" s="34">
+        <v>3</v>
+      </c>
+      <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4628,8 +4788,8 @@
       <c r="P47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q47" s="37" t="s">
-        <v>23</v>
+      <c r="Q47" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R47" s="29" t="s">
         <v>20</v>
@@ -4640,25 +4800,29 @@
       <c r="T47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U47" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
+      <c r="U47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W47" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X47" s="38"/>
       <c r="Y47" s="38"/>
       <c r="Z47" s="38"/>
       <c r="AA47" s="38"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="31">
+      <c r="A48" s="32">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="34" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -4668,15 +4832,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="37" t="s">
-        <v>23</v>
+      <c r="H48" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>20</v>
@@ -4717,22 +4881,26 @@
       <c r="U48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
+      <c r="V48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X48" s="38"/>
       <c r="Y48" s="38"/>
       <c r="Z48" s="38"/>
       <c r="AA48" s="38"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="31">
+      <c r="A49" s="32">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="34" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -4742,9 +4910,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4752,8 +4920,8 @@
       <c r="H49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="37" t="s">
-        <v>23</v>
+      <c r="I49" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="J49" s="29" t="s">
         <v>20</v>
@@ -4767,8 +4935,8 @@
       <c r="M49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="37" t="s">
-        <v>23</v>
+      <c r="N49" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="O49" s="29" t="s">
         <v>20</v>
@@ -4779,11 +4947,11 @@
       <c r="Q49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="37" t="s">
-        <v>23</v>
+      <c r="R49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T49" s="29" t="s">
         <v>20</v>
@@ -4791,22 +4959,26 @@
       <c r="U49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
+      <c r="V49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X49" s="38"/>
       <c r="Y49" s="38"/>
       <c r="Z49" s="38"/>
       <c r="AA49" s="38"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="31">
+      <c r="A50" s="32">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="34" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -4816,21 +4988,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="37" t="s">
-        <v>23</v>
+      <c r="J50" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="K50" s="29" t="s">
         <v>20</v>
@@ -4838,8 +5010,8 @@
       <c r="L50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="37" t="s">
-        <v>23</v>
+      <c r="M50" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N50" s="29" t="s">
         <v>20</v>
@@ -4847,8 +5019,8 @@
       <c r="O50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="37" t="s">
-        <v>23</v>
+      <c r="P50" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="Q50" s="29" t="s">
         <v>20</v>
@@ -4856,8 +5028,8 @@
       <c r="R50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="37" t="s">
-        <v>23</v>
+      <c r="S50" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T50" s="29" t="s">
         <v>20</v>
@@ -4865,22 +5037,26 @@
       <c r="U50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
+      <c r="V50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X50" s="38"/>
       <c r="Y50" s="38"/>
       <c r="Z50" s="38"/>
       <c r="AA50" s="38"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="31">
+      <c r="A51" s="32">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="34" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -4888,11 +5064,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F51" s="34">
+        <v>2</v>
+      </c>
+      <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>20</v>
@@ -4906,8 +5082,8 @@
       <c r="J51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="37" t="s">
-        <v>23</v>
+      <c r="K51" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="L51" s="29" t="s">
         <v>20</v>
@@ -4939,22 +5115,26 @@
       <c r="U51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
+      <c r="V51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W51" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X51" s="38"/>
       <c r="Y51" s="38"/>
       <c r="Z51" s="38"/>
       <c r="AA51" s="38"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="31">
+      <c r="A52" s="32">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="34" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -4964,9 +5144,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -4986,8 +5166,8 @@
       <c r="L52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="37" t="s">
-        <v>23</v>
+      <c r="M52" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N52" s="29" t="s">
         <v>20</v>
@@ -4995,8 +5175,8 @@
       <c r="O52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="37" t="s">
-        <v>23</v>
+      <c r="P52" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="Q52" s="29" t="s">
         <v>20</v>
@@ -5007,28 +5187,32 @@
       <c r="S52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T52" s="37" t="s">
-        <v>23</v>
+      <c r="T52" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="U52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
+      <c r="V52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X52" s="38"/>
       <c r="Y52" s="38"/>
       <c r="Z52" s="38"/>
       <c r="AA52" s="38"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="31">
+      <c r="A53" s="32">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="34" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -5036,11 +5220,11 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F53" s="34">
+        <v>3</v>
+      </c>
+      <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -5057,8 +5241,8 @@
       <c r="K53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="37" t="s">
-        <v>23</v>
+      <c r="L53" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="M53" s="29" t="s">
         <v>20</v>
@@ -5075,8 +5259,8 @@
       <c r="Q53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="37" t="s">
-        <v>23</v>
+      <c r="R53" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S53" s="29" t="s">
         <v>20</v>
@@ -5087,22 +5271,26 @@
       <c r="U53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
+      <c r="V53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W53" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X53" s="38"/>
       <c r="Y53" s="38"/>
       <c r="Z53" s="38"/>
       <c r="AA53" s="38"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="31">
+      <c r="A54" s="32">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="26" t="s">
@@ -5112,14 +5300,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="29" t="s">
@@ -5161,22 +5349,26 @@
       <c r="U54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
+      <c r="V54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X54" s="38"/>
       <c r="Y54" s="38"/>
       <c r="Z54" s="38"/>
       <c r="AA54" s="38"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="31">
+      <c r="A55" s="32">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="34" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -5184,11 +5376,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F55" s="34">
+        <v>3</v>
+      </c>
+      <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -5196,8 +5388,8 @@
       <c r="H55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="37" t="s">
-        <v>23</v>
+      <c r="I55" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>20</v>
@@ -5214,8 +5406,8 @@
       <c r="N55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="37" t="s">
-        <v>23</v>
+      <c r="O55" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P55" s="29" t="s">
         <v>20</v>
@@ -5235,22 +5427,26 @@
       <c r="U55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
+      <c r="V55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X55" s="38"/>
       <c r="Y55" s="38"/>
       <c r="Z55" s="38"/>
       <c r="AA55" s="38"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="31">
+      <c r="A56" s="32">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="34" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -5260,14 +5456,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="35" t="s">
+      <c r="H56" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I56" s="29" t="s">
@@ -5282,14 +5478,14 @@
       <c r="L56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M56" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="O56" s="37" t="s">
-        <v>23</v>
+      <c r="M56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P56" s="29" t="s">
         <v>20</v>
@@ -5309,22 +5505,26 @@
       <c r="U56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
+      <c r="V56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X56" s="38"/>
       <c r="Y56" s="38"/>
       <c r="Z56" s="38"/>
       <c r="AA56" s="38"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="31">
+      <c r="A57" s="32">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="34" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="26" t="s">
@@ -5334,9 +5534,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -5344,14 +5544,14 @@
       <c r="H57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="36" t="s">
-        <v>23</v>
+      <c r="I57" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="J57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="37" t="s">
-        <v>23</v>
+      <c r="K57" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="L57" s="29" t="s">
         <v>20</v>
@@ -5359,11 +5559,11 @@
       <c r="M57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="O57" s="37" t="s">
-        <v>23</v>
+      <c r="N57" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P57" s="29" t="s">
         <v>20</v>
@@ -5374,8 +5574,8 @@
       <c r="R57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="37" t="s">
-        <v>23</v>
+      <c r="S57" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T57" s="29" t="s">
         <v>20</v>
@@ -5383,22 +5583,26 @@
       <c r="U57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
+      <c r="V57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X57" s="38"/>
       <c r="Y57" s="38"/>
       <c r="Z57" s="38"/>
       <c r="AA57" s="38"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="31">
+      <c r="A58" s="32">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="34" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="26" t="s">
@@ -5406,16 +5610,16 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F58" s="34">
+        <v>3</v>
+      </c>
+      <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I58" s="29" t="s">
@@ -5439,8 +5643,8 @@
       <c r="O58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="37" t="s">
-        <v>23</v>
+      <c r="P58" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="Q58" s="29" t="s">
         <v>20</v>
@@ -5448,8 +5652,8 @@
       <c r="R58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="37" t="s">
-        <v>23</v>
+      <c r="S58" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T58" s="29" t="s">
         <v>20</v>
@@ -5457,22 +5661,26 @@
       <c r="U58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
+      <c r="V58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X58" s="38"/>
       <c r="Y58" s="38"/>
       <c r="Z58" s="38"/>
       <c r="AA58" s="38"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="31">
+      <c r="A59" s="32">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="34" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="26" t="s">
@@ -5480,11 +5688,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F59" s="34">
+        <v>4</v>
+      </c>
+      <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5498,11 +5706,11 @@
       <c r="J59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="L59" s="37" t="s">
-        <v>23</v>
+      <c r="K59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="M59" s="29" t="s">
         <v>20</v>
@@ -5525,28 +5733,32 @@
       <c r="S59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T59" s="37" t="s">
-        <v>23</v>
+      <c r="T59" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="U59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
+      <c r="V59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X59" s="38"/>
       <c r="Y59" s="38"/>
       <c r="Z59" s="38"/>
       <c r="AA59" s="38"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="31">
+      <c r="A60" s="32">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="34" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="26" t="s">
@@ -5554,11 +5766,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F60" s="34">
+        <v>2</v>
+      </c>
+      <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -5596,8 +5808,8 @@
       <c r="R60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="37" t="s">
-        <v>23</v>
+      <c r="S60" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T60" s="29" t="s">
         <v>20</v>
@@ -5605,22 +5817,26 @@
       <c r="U60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
+      <c r="V60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X60" s="38"/>
       <c r="Y60" s="38"/>
       <c r="Z60" s="38"/>
       <c r="AA60" s="38"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="31">
+      <c r="A61" s="32">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="34" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="26" t="s">
@@ -5630,15 +5846,15 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="37" t="s">
-        <v>23</v>
+      <c r="H61" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="I61" s="29" t="s">
         <v>20</v>
@@ -5652,8 +5868,8 @@
       <c r="L61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="37" t="s">
-        <v>23</v>
+      <c r="M61" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N61" s="29" t="s">
         <v>20</v>
@@ -5673,28 +5889,32 @@
       <c r="S61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="U61" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
+      <c r="T61" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U61" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X61" s="38"/>
       <c r="Y61" s="38"/>
       <c r="Z61" s="38"/>
       <c r="AA61" s="38"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="31">
+      <c r="A62" s="32">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="34" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="26" t="s">
@@ -5702,9 +5922,9 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="34">
+        <v>2</v>
+      </c>
+      <c r="F62" s="35">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -5753,22 +5973,26 @@
       <c r="U62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
+      <c r="V62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W62" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X62" s="38"/>
       <c r="Y62" s="38"/>
       <c r="Z62" s="38"/>
       <c r="AA62" s="38"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="31">
+      <c r="A63" s="32">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="26" t="s">
@@ -5778,9 +6002,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -5788,14 +6012,14 @@
       <c r="H63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="36" t="s">
-        <v>23</v>
+      <c r="I63" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="J63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="37" t="s">
-        <v>23</v>
+      <c r="K63" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="L63" s="29" t="s">
         <v>20</v>
@@ -5803,14 +6027,14 @@
       <c r="M63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="37" t="s">
-        <v>23</v>
+      <c r="N63" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="O63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="37" t="s">
-        <v>23</v>
+      <c r="P63" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="Q63" s="29" t="s">
         <v>20</v>
@@ -5827,22 +6051,26 @@
       <c r="U63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
+      <c r="V63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X63" s="38"/>
       <c r="Y63" s="38"/>
       <c r="Z63" s="38"/>
       <c r="AA63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="31">
+      <c r="A64" s="32">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="26" t="s">
@@ -5852,9 +6080,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -5874,8 +6102,8 @@
       <c r="L64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M64" s="37" t="s">
-        <v>23</v>
+      <c r="M64" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N64" s="29" t="s">
         <v>20</v>
@@ -5901,22 +6129,26 @@
       <c r="U64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
+      <c r="V64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X64" s="38"/>
       <c r="Y64" s="38"/>
       <c r="Z64" s="38"/>
       <c r="AA64" s="38"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="31">
+      <c r="A65" s="32">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="34" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="26" t="s">
@@ -5926,9 +6158,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -5936,8 +6168,8 @@
       <c r="H65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="36" t="s">
-        <v>23</v>
+      <c r="I65" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="J65" s="29" t="s">
         <v>20</v>
@@ -5954,14 +6186,14 @@
       <c r="N65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O65" s="37" t="s">
-        <v>23</v>
+      <c r="O65" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="37" t="s">
-        <v>23</v>
+      <c r="Q65" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R65" s="29" t="s">
         <v>20</v>
@@ -5975,22 +6207,26 @@
       <c r="U65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
+      <c r="V65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X65" s="38"/>
       <c r="Y65" s="38"/>
       <c r="Z65" s="38"/>
       <c r="AA65" s="38"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="31">
+      <c r="A66" s="32">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="26" t="s">
@@ -6000,9 +6236,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F66" s="34">
+      <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -6049,22 +6285,26 @@
       <c r="U66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
+      <c r="V66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X66" s="38"/>
       <c r="Y66" s="38"/>
       <c r="Z66" s="38"/>
       <c r="AA66" s="38"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="31">
+      <c r="A67" s="32">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="34" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="26" t="s">
@@ -6074,9 +6314,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -6096,11 +6336,11 @@
       <c r="L67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M67" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" s="37" t="s">
-        <v>23</v>
+      <c r="M67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="O67" s="29" t="s">
         <v>20</v>
@@ -6111,34 +6351,38 @@
       <c r="Q67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R67" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="37" t="s">
-        <v>23</v>
+      <c r="R67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U67" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
+      <c r="U67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X67" s="38"/>
       <c r="Y67" s="38"/>
       <c r="Z67" s="38"/>
       <c r="AA67" s="38"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="31">
+      <c r="A68" s="32">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="34" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="26" t="s">
@@ -6148,9 +6392,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F68" s="34">
+      <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -6179,11 +6423,11 @@
       <c r="O68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q68" s="37" t="s">
-        <v>23</v>
+      <c r="P68" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R68" s="29" t="s">
         <v>20</v>
@@ -6191,28 +6435,32 @@
       <c r="S68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="U68" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
+      <c r="T68" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U68" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X68" s="38"/>
       <c r="Y68" s="38"/>
       <c r="Z68" s="38"/>
       <c r="AA68" s="38"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="31">
+      <c r="A69" s="32">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="34" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="26" t="s">
@@ -6222,14 +6470,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="35" t="s">
+      <c r="H69" s="36" t="s">
         <v>20</v>
       </c>
       <c r="I69" s="29" t="s">
@@ -6259,34 +6507,38 @@
       <c r="Q69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="37" t="s">
-        <v>23</v>
+      <c r="R69" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T69" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="U69" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
+      <c r="T69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X69" s="38"/>
       <c r="Y69" s="38"/>
       <c r="Z69" s="38"/>
       <c r="AA69" s="38"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="31">
+      <c r="A70" s="32">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D70" s="26" t="s">
@@ -6296,9 +6548,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -6345,22 +6597,26 @@
       <c r="U70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
+      <c r="V70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X70" s="38"/>
       <c r="Y70" s="38"/>
       <c r="Z70" s="38"/>
       <c r="AA70" s="38"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="31">
+      <c r="A71" s="32">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="34" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="26" t="s">
@@ -6368,11 +6624,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F71" s="34">
+        <v>3</v>
+      </c>
+      <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -6380,14 +6636,14 @@
       <c r="H71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="35" t="s">
+      <c r="I71" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="37" t="s">
-        <v>23</v>
+      <c r="K71" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="L71" s="29" t="s">
         <v>20</v>
@@ -6410,8 +6666,8 @@
       <c r="R71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="37" t="s">
-        <v>23</v>
+      <c r="S71" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T71" s="29" t="s">
         <v>20</v>
@@ -6419,22 +6675,26 @@
       <c r="U71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
+      <c r="V71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W71" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X71" s="38"/>
       <c r="Y71" s="38"/>
       <c r="Z71" s="38"/>
       <c r="AA71" s="38"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="31">
+      <c r="A72" s="32">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="34" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="26" t="s">
@@ -6444,21 +6704,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G72" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="K72" s="29" t="s">
         <v>20</v>
@@ -6472,8 +6732,8 @@
       <c r="N72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O72" s="37" t="s">
-        <v>23</v>
+      <c r="O72" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="P72" s="29" t="s">
         <v>20</v>
@@ -6487,28 +6747,32 @@
       <c r="S72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T72" s="37" t="s">
-        <v>23</v>
+      <c r="T72" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="U72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
+      <c r="V72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X72" s="38"/>
       <c r="Y72" s="38"/>
       <c r="Z72" s="38"/>
       <c r="AA72" s="38"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="31">
+      <c r="A73" s="32">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="26" t="s">
@@ -6516,11 +6780,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F73" s="34">
+        <v>4</v>
+      </c>
+      <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -6528,7 +6792,7 @@
       <c r="H73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="35" t="s">
+      <c r="I73" s="36" t="s">
         <v>20</v>
       </c>
       <c r="J73" s="29" t="s">
@@ -6543,8 +6807,8 @@
       <c r="M73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="37" t="s">
-        <v>23</v>
+      <c r="N73" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="O73" s="29" t="s">
         <v>20</v>
@@ -6552,8 +6816,8 @@
       <c r="P73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="37" t="s">
-        <v>23</v>
+      <c r="Q73" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R73" s="29" t="s">
         <v>20</v>
@@ -6564,25 +6828,29 @@
       <c r="T73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U73" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
+      <c r="U73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W73" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X73" s="38"/>
       <c r="Y73" s="38"/>
       <c r="Z73" s="38"/>
       <c r="AA73" s="38"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="31">
+      <c r="A74" s="32">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="34" t="s">
         <v>155</v>
       </c>
       <c r="D74" s="26" t="s">
@@ -6590,11 +6858,11 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="34">
+        <v>1</v>
+      </c>
+      <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -6641,22 +6909,26 @@
       <c r="U74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
+      <c r="V74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W74" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X74" s="38"/>
       <c r="Y74" s="38"/>
       <c r="Z74" s="38"/>
       <c r="AA74" s="38"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="31">
+      <c r="A75" s="32">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C75" s="34" t="s">
         <v>157</v>
       </c>
       <c r="D75" s="26" t="s">
@@ -6666,12 +6938,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G75" s="37" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="H75" s="29" t="s">
         <v>20</v>
@@ -6682,14 +6954,14 @@
       <c r="J75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="L75" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75" s="37" t="s">
-        <v>23</v>
+      <c r="K75" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N75" s="29" t="s">
         <v>20</v>
@@ -6700,14 +6972,14 @@
       <c r="P75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q75" s="37" t="s">
-        <v>23</v>
+      <c r="Q75" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="R75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="37" t="s">
-        <v>23</v>
+      <c r="S75" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="T75" s="29" t="s">
         <v>20</v>
@@ -6715,22 +6987,26 @@
       <c r="U75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
+      <c r="V75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X75" s="38"/>
       <c r="Y75" s="38"/>
       <c r="Z75" s="38"/>
       <c r="AA75" s="38"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="31">
+      <c r="A76" s="32">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="34" t="s">
         <v>159</v>
       </c>
       <c r="D76" s="26" t="s">
@@ -6740,18 +7016,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F76" s="34">
+      <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" s="37" t="s">
-        <v>23</v>
+      <c r="H76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="J76" s="29" t="s">
         <v>20</v>
@@ -6762,8 +7038,8 @@
       <c r="L76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M76" s="37" t="s">
-        <v>23</v>
+      <c r="M76" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N76" s="29" t="s">
         <v>20</v>
@@ -6783,28 +7059,32 @@
       <c r="S76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T76" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="U76" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
+      <c r="T76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X76" s="38"/>
       <c r="Y76" s="38"/>
       <c r="Z76" s="38"/>
       <c r="AA76" s="38"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="31">
+      <c r="A77" s="32">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="34" t="s">
         <v>161</v>
       </c>
       <c r="D77" s="26" t="s">
@@ -6812,11 +7092,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="34">
+        <v>1</v>
+      </c>
+      <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G77" s="29" t="s">
         <v>20</v>
@@ -6863,22 +7143,26 @@
       <c r="U77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
+      <c r="V77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W77" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X77" s="38"/>
       <c r="Y77" s="38"/>
       <c r="Z77" s="38"/>
       <c r="AA77" s="38"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="31">
+      <c r="A78" s="32">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="34" t="s">
         <v>163</v>
       </c>
       <c r="D78" s="26" t="s">
@@ -6888,9 +7172,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>20</v>
@@ -6898,8 +7182,8 @@
       <c r="H78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="37" t="s">
-        <v>23</v>
+      <c r="I78" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="J78" s="29" t="s">
         <v>20</v>
@@ -6910,8 +7194,8 @@
       <c r="L78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M78" s="37" t="s">
-        <v>23</v>
+      <c r="M78" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N78" s="29" t="s">
         <v>20</v>
@@ -6925,38 +7209,42 @@
       <c r="Q78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R78" s="37" t="s">
-        <v>23</v>
+      <c r="R78" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="S78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T78" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="U78" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
+      <c r="T78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="X78" s="38"/>
       <c r="Y78" s="38"/>
       <c r="Z78" s="38"/>
       <c r="AA78" s="38"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="31" t="str">
+      <c r="A79" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="41"/>
       <c r="E79" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F79" s="34" t="str">
+      <c r="F79" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6983,18 +7271,18 @@
       <c r="AA79" s="38"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="31" t="str">
+      <c r="A80" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="41"/>
       <c r="E80" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F80" s="34" t="str">
+      <c r="F80" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7021,18 +7309,18 @@
       <c r="AA80" s="38"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="31" t="str">
+      <c r="A81" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="41"/>
       <c r="E81" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F81" s="34" t="str">
+      <c r="F81" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7059,18 +7347,18 @@
       <c r="AA81" s="38"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="31" t="str">
+      <c r="A82" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="41"/>
       <c r="E82" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F82" s="34" t="str">
+      <c r="F82" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7097,18 +7385,18 @@
       <c r="AA82" s="38"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="31" t="str">
+      <c r="A83" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="41"/>
       <c r="E83" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F83" s="34" t="str">
+      <c r="F83" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7135,18 +7423,18 @@
       <c r="AA83" s="38"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="31" t="str">
+      <c r="A84" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="41"/>
       <c r="E84" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F84" s="34" t="str">
+      <c r="F84" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7173,18 +7461,18 @@
       <c r="AA84" s="38"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="31" t="str">
+      <c r="A85" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="34"/>
       <c r="D85" s="41"/>
       <c r="E85" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F85" s="34" t="str">
+      <c r="F85" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7211,18 +7499,18 @@
       <c r="AA85" s="38"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="31" t="str">
+      <c r="A86" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="34"/>
       <c r="D86" s="41"/>
       <c r="E86" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F86" s="34" t="str">
+      <c r="F86" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7249,7 +7537,7 @@
       <c r="AA86" s="38"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="31" t="str">
+      <c r="A87" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7260,7 +7548,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F87" s="34" t="str">
+      <c r="F87" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7287,7 +7575,7 @@
       <c r="AA87" s="38"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="31" t="str">
+      <c r="A88" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7298,7 +7586,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F88" s="34" t="str">
+      <c r="F88" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7325,7 +7613,7 @@
       <c r="AA88" s="38"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="31" t="str">
+      <c r="A89" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7336,7 +7624,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F89" s="34" t="str">
+      <c r="F89" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7363,7 +7651,7 @@
       <c r="AA89" s="38"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="31" t="str">
+      <c r="A90" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7374,7 +7662,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F90" s="34" t="str">
+      <c r="F90" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7401,7 +7689,7 @@
       <c r="AA90" s="38"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="31" t="str">
+      <c r="A91" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7412,7 +7700,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F91" s="34" t="str">
+      <c r="F91" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7439,7 +7727,7 @@
       <c r="AA91" s="38"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="31" t="str">
+      <c r="A92" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7450,7 +7738,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F92" s="34" t="str">
+      <c r="F92" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7477,7 +7765,7 @@
       <c r="AA92" s="38"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="31" t="str">
+      <c r="A93" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7488,7 +7776,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F93" s="34" t="str">
+      <c r="F93" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7515,7 +7803,7 @@
       <c r="AA93" s="38"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="31" t="str">
+      <c r="A94" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7526,7 +7814,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F94" s="34" t="str">
+      <c r="F94" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -7553,7 +7841,7 @@
       <c r="AA94" s="38"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="31" t="str">
+      <c r="A95" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7564,7 +7852,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F95" s="34" t="str">
+      <c r="F95" s="35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1235,11 +1235,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.13"/>
+    <col customWidth="1" min="1" max="1" width="6.13"/>
     <col customWidth="1" min="2" max="2" width="20.13"/>
     <col customWidth="1" min="3" max="3" width="25.88"/>
     <col customWidth="1" min="4" max="4" width="11.5"/>
-    <col customWidth="1" min="5" max="6" width="12.75"/>
+    <col customWidth="1" min="5" max="5" width="14.0"/>
+    <col customWidth="1" min="6" max="6" width="13.5"/>
     <col customWidth="1" min="7" max="15" width="4.38"/>
     <col customWidth="1" min="16" max="26" width="5.38"/>
     <col customWidth="1" min="27" max="27" width="8.5"/>
@@ -1632,11 +1633,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1689,9 +1690,15 @@
       <c r="W7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
+      <c r="X7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA7" s="31"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1710,11 +1717,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>20</v>
@@ -1767,9 +1774,15 @@
       <c r="W8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
+      <c r="X8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1792,7 +1805,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
@@ -1845,9 +1858,15 @@
       <c r="W9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
+      <c r="X9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA9" s="38"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1866,7 +1885,7 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
@@ -1923,9 +1942,15 @@
       <c r="W10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
+      <c r="X10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA10" s="38"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1948,7 +1973,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>20</v>
@@ -2001,9 +2026,15 @@
       <c r="W11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
+      <c r="X11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA11" s="38"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2022,11 +2053,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -2079,9 +2110,15 @@
       <c r="W12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
+      <c r="X12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA12" s="38"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2100,11 +2137,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2157,9 +2194,15 @@
       <c r="W13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
+      <c r="X13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA13" s="38"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2178,11 +2221,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>20</v>
@@ -2235,9 +2278,15 @@
       <c r="W14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
+      <c r="X14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA14" s="38"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2260,7 +2309,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2313,9 +2362,15 @@
       <c r="W15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
+      <c r="X15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA15" s="38"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2334,11 +2389,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>21</v>
@@ -2391,9 +2446,15 @@
       <c r="W16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
+      <c r="X16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA16" s="38"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2416,7 +2477,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>20</v>
@@ -2469,9 +2530,15 @@
       <c r="W17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
+      <c r="X17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA17" s="38"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2490,11 +2557,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2547,9 +2614,15 @@
       <c r="W18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
+      <c r="X18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA18" s="38"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2568,11 +2641,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2625,9 +2698,15 @@
       <c r="W19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
+      <c r="X19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA19" s="38"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2650,7 +2729,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2703,9 +2782,15 @@
       <c r="W20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
+      <c r="X20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA20" s="38"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2724,11 +2809,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2781,9 +2866,15 @@
       <c r="W21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
+      <c r="X21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA21" s="38"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2802,11 +2893,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2859,9 +2950,15 @@
       <c r="W22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
+      <c r="X22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA22" s="38"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2884,7 +2981,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>21</v>
@@ -2937,9 +3034,15 @@
       <c r="W23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
+      <c r="X23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA23" s="38"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2958,11 +3061,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>20</v>
@@ -3015,9 +3118,15 @@
       <c r="W24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
+      <c r="X24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA24" s="38"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3040,7 +3149,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -3093,9 +3202,15 @@
       <c r="W25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
+      <c r="X25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA25" s="38"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3114,11 +3229,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>21</v>
@@ -3171,9 +3286,15 @@
       <c r="W26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
+      <c r="X26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA26" s="38"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3192,11 +3313,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -3249,9 +3370,15 @@
       <c r="W27" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
+      <c r="X27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z27" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA27" s="38"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3270,11 +3397,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>20</v>
@@ -3327,9 +3454,15 @@
       <c r="W28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
+      <c r="X28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA28" s="38"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3352,7 +3485,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>20</v>
@@ -3405,9 +3538,15 @@
       <c r="W29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
+      <c r="X29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA29" s="38"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3430,7 +3569,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>20</v>
@@ -3483,9 +3622,15 @@
       <c r="W30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
+      <c r="X30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA30" s="38"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3504,11 +3649,11 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>20</v>
@@ -3561,9 +3706,15 @@
       <c r="W31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
+      <c r="X31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z31" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA31" s="38"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3582,11 +3733,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3639,9 +3790,15 @@
       <c r="W32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
+      <c r="X32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA32" s="38"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3664,7 +3821,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>20</v>
@@ -3717,9 +3874,15 @@
       <c r="W33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
+      <c r="X33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA33" s="38"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3742,7 +3905,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>20</v>
@@ -3795,9 +3958,15 @@
       <c r="W34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
+      <c r="X34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA34" s="38"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3820,7 +3989,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>21</v>
@@ -3873,9 +4042,15 @@
       <c r="W35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
+      <c r="X35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA35" s="38"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3898,7 +4073,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3951,9 +4126,15 @@
       <c r="W36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
+      <c r="X36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA36" s="38"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3976,7 +4157,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -4029,9 +4210,15 @@
       <c r="W37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
+      <c r="X37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA37" s="38"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4054,7 +4241,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>20</v>
@@ -4107,9 +4294,15 @@
       <c r="W38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
+      <c r="X38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA38" s="38"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4128,11 +4321,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -4185,9 +4378,15 @@
       <c r="W39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
+      <c r="X39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA39" s="38"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4206,11 +4405,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>20</v>
@@ -4263,9 +4462,15 @@
       <c r="W40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
+      <c r="X40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA40" s="38"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4284,11 +4489,11 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -4341,9 +4546,15 @@
       <c r="W41" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
+      <c r="X41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y41" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA41" s="38"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4362,11 +4573,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -4419,9 +4630,15 @@
       <c r="W42" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
+      <c r="X42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z42" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA42" s="38"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4444,7 +4661,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>20</v>
@@ -4497,9 +4714,15 @@
       <c r="W43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
+      <c r="X43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA43" s="38"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4522,7 +4745,7 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -4575,9 +4798,15 @@
       <c r="W44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
+      <c r="X44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA44" s="38"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4600,7 +4829,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>20</v>
@@ -4653,9 +4882,15 @@
       <c r="W45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
+      <c r="X45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA45" s="38"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4678,7 +4913,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4731,9 +4966,15 @@
       <c r="W46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
+      <c r="X46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA46" s="38"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4752,11 +4993,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4809,9 +5050,15 @@
       <c r="W47" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
+      <c r="X47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA47" s="38"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4830,11 +5077,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4887,9 +5134,15 @@
       <c r="W48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
+      <c r="X48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z48" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA48" s="38"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -4912,7 +5165,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
@@ -4965,9 +5218,15 @@
       <c r="W49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
+      <c r="X49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA49" s="38"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -4986,11 +5245,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>21</v>
@@ -5043,9 +5302,15 @@
       <c r="W50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
+      <c r="X50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y50" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z50" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA50" s="38"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5064,7 +5329,7 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
@@ -5121,9 +5386,15 @@
       <c r="W51" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
+      <c r="X51" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z51" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA51" s="38"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5142,11 +5413,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -5199,9 +5470,15 @@
       <c r="W52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
+      <c r="X52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z52" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA52" s="38"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5224,7 +5501,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -5277,9 +5554,15 @@
       <c r="W53" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
+      <c r="X53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA53" s="38"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5302,7 +5585,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -5355,9 +5638,15 @@
       <c r="W54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
+      <c r="X54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA54" s="38"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5380,7 +5669,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -5433,9 +5722,15 @@
       <c r="W55" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
+      <c r="X55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA55" s="38"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5458,7 +5753,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -5511,9 +5806,15 @@
       <c r="W56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
+      <c r="X56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA56" s="38"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5532,11 +5833,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -5589,9 +5890,15 @@
       <c r="W57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
+      <c r="X57" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z57" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA57" s="38"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5614,7 +5921,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>20</v>
@@ -5667,9 +5974,15 @@
       <c r="W58" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
+      <c r="X58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA58" s="38"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5692,7 +6005,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5745,9 +6058,15 @@
       <c r="W59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
+      <c r="X59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA59" s="38"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5766,11 +6085,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -5823,9 +6142,15 @@
       <c r="W60" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="38"/>
+      <c r="X60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z60" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA60" s="38"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -5848,7 +6173,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -5901,9 +6226,15 @@
       <c r="W61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
+      <c r="X61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA61" s="38"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -5926,7 +6257,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5979,9 +6310,15 @@
       <c r="W62" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
+      <c r="X62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA62" s="38"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6004,7 +6341,7 @@
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -6057,9 +6394,15 @@
       <c r="W63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
+      <c r="X63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6078,11 +6421,11 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" s="29" t="s">
         <v>20</v>
@@ -6135,9 +6478,15 @@
       <c r="W64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
+      <c r="X64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA64" s="38"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6160,7 +6509,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -6213,9 +6562,15 @@
       <c r="W65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
+      <c r="X65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA65" s="38"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6238,7 +6593,7 @@
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>20</v>
@@ -6291,9 +6646,15 @@
       <c r="W66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
+      <c r="X66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA66" s="38"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6316,7 +6677,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -6369,9 +6730,15 @@
       <c r="W67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38"/>
+      <c r="X67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA67" s="38"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6394,7 +6761,7 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -6447,9 +6814,15 @@
       <c r="W68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
+      <c r="X68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA68" s="38"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
@@ -6468,11 +6841,11 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -6525,9 +6898,15 @@
       <c r="W69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
+      <c r="X69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z69" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA69" s="38"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6550,7 +6929,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -6603,9 +6982,15 @@
       <c r="W70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
+      <c r="X70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA70" s="38"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6624,11 +7009,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -6681,9 +7066,15 @@
       <c r="W71" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="38"/>
-      <c r="Z71" s="38"/>
+      <c r="X71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z71" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA71" s="38"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6706,7 +7097,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G72" s="30" t="s">
         <v>21</v>
@@ -6759,9 +7150,15 @@
       <c r="W72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
+      <c r="X72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA72" s="38"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -6784,7 +7181,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -6837,9 +7234,15 @@
       <c r="W73" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="38"/>
+      <c r="X73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA73" s="38"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -6862,7 +7265,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -6915,9 +7318,15 @@
       <c r="W74" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
+      <c r="X74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA74" s="38"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -6940,7 +7349,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>21</v>
@@ -6993,9 +7402,15 @@
       <c r="W75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
+      <c r="X75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA75" s="38"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -7018,7 +7433,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>20</v>
@@ -7071,9 +7486,15 @@
       <c r="W76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
+      <c r="X76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA76" s="38"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -7092,7 +7513,7 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
@@ -7149,9 +7570,15 @@
       <c r="W77" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
+      <c r="X77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z77" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="AA77" s="38"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -7174,7 +7601,7 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>20</v>
@@ -7227,9 +7654,15 @@
       <c r="W78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38"/>
+      <c r="X78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="AA78" s="38"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">

--- a/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-S (ABCD) Attendance Sheet.xlsx
@@ -5,11 +5,13 @@
   <sheets>
     <sheet state="visible" name="Attendance Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$A$6:$AA$78</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="mmUhai+U6UfjEfVpid7m35jemWI5A14VpA23lVxB4Ck="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hRjK+VxO94/PprfWYOCvZENH3SdPSR4i7uTKfzx3zHY="/>
     </ext>
   </extLst>
 </workbook>
@@ -941,13 +943,13 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1233,12 +1235,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="13.5"/>
+    <col customWidth="1" min="1" max="1" width="6.13"/>
+    <col customWidth="1" min="2" max="2" width="20.13"/>
     <col customWidth="1" min="3" max="3" width="25.88"/>
     <col customWidth="1" min="4" max="4" width="11.5"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="9.63"/>
+    <col customWidth="1" min="5" max="5" width="14.0"/>
+    <col customWidth="1" min="6" max="6" width="13.5"/>
     <col customWidth="1" min="7" max="15" width="4.38"/>
     <col customWidth="1" min="16" max="26" width="5.38"/>
     <col customWidth="1" min="27" max="27" width="8.5"/>
@@ -1533,7 +1535,7 @@
       </c>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" ht="33.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
@@ -11025,6 +11027,12 @@
       <c r="G1000" s="44"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$6:$AA$78">
+    <sortState ref="A6:AA78">
+      <sortCondition ref="A6:A78"/>
+      <sortCondition ref="C6:C78"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
